--- a/data/analysis/indicators/indic_pivot_tables/indic-size/indic_counts-m_size.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-size/indic_counts-m_size.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="27">
   <si>
     <t>session_id</t>
   </si>
@@ -43,10 +43,25 @@
     <t>20210404</t>
   </si>
   <si>
+    <t>20210503</t>
+  </si>
+  <si>
+    <t>20210614</t>
+  </si>
+  <si>
     <t>20210629</t>
   </si>
   <si>
+    <t>20210712</t>
+  </si>
+  <si>
+    <t>20210809</t>
+  </si>
+  <si>
     <t>20210914</t>
+  </si>
+  <si>
+    <t>20211108</t>
   </si>
   <si>
     <t>closed_cur</t>
@@ -441,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -498,10 +513,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>415</v>
@@ -521,10 +536,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>660</v>
@@ -544,10 +559,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>1085</v>
@@ -567,10 +582,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6">
         <v>78</v>
@@ -590,10 +605,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -613,10 +628,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>276</v>
@@ -636,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>361</v>
@@ -659,10 +674,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>434</v>
@@ -682,10 +697,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -705,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -728,10 +743,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>461</v>
@@ -751,10 +766,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>754</v>
@@ -774,10 +789,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D15">
         <v>1356</v>
@@ -797,10 +812,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D16">
         <v>114</v>
@@ -820,10 +835,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -843,10 +858,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>280</v>
@@ -866,10 +881,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>420</v>
@@ -889,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>709</v>
@@ -912,10 +927,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>59</v>
@@ -935,10 +950,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -958,10 +973,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>418</v>
@@ -981,10 +996,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>693</v>
@@ -1004,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>1207</v>
@@ -1027,10 +1042,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D26">
         <v>87</v>
@@ -1050,10 +1065,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -1073,10 +1088,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D28">
         <v>248</v>
@@ -1096,10 +1111,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D29">
         <v>384</v>
@@ -1119,10 +1134,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D30">
         <v>665</v>
@@ -1142,10 +1157,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -1165,10 +1180,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -1188,10 +1203,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D33">
         <v>412</v>
@@ -1211,10 +1226,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>659</v>
@@ -1234,10 +1249,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>1087</v>
@@ -1257,10 +1272,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>83</v>
@@ -1280,10 +1295,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1303,10 +1318,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <v>282</v>
@@ -1326,10 +1341,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <v>375</v>
@@ -1349,10 +1364,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>461</v>
@@ -1372,10 +1387,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -1395,10 +1410,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -1418,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D43">
         <v>464</v>
@@ -1441,10 +1456,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>764</v>
@@ -1464,10 +1479,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>1367</v>
@@ -1487,10 +1502,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D46">
         <v>115</v>
@@ -1510,10 +1525,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -1533,10 +1548,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D48">
         <v>290</v>
@@ -1556,10 +1571,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D49">
         <v>430</v>
@@ -1579,10 +1594,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D50">
         <v>740</v>
@@ -1602,10 +1617,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D51">
         <v>62</v>
@@ -1625,10 +1640,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -1648,10 +1663,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D53">
         <v>425</v>
@@ -1671,10 +1686,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D54">
         <v>699</v>
@@ -1694,10 +1709,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D55">
         <v>1235</v>
@@ -1717,10 +1732,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D56">
         <v>89</v>
@@ -1740,10 +1755,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -1763,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D58">
         <v>246</v>
@@ -1786,10 +1801,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D59">
         <v>386</v>
@@ -1809,10 +1824,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D60">
         <v>673</v>
@@ -1832,10 +1847,10 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D61">
         <v>46</v>
@@ -1855,22 +1870,22 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62">
         <v>12</v>
       </c>
       <c r="F62">
-        <v>83.3</v>
+        <v>100</v>
       </c>
       <c r="G62" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1878,22 +1893,22 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E63">
         <v>498</v>
       </c>
       <c r="F63">
-        <v>71.5</v>
+        <v>76.7</v>
       </c>
       <c r="G63" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1901,22 +1916,22 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D64">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="E64">
         <v>865</v>
       </c>
       <c r="F64">
-        <v>64.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G64" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1924,22 +1939,22 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D65">
-        <v>976</v>
+        <v>1053</v>
       </c>
       <c r="E65">
         <v>1825</v>
       </c>
       <c r="F65">
-        <v>53.5</v>
+        <v>57.7</v>
       </c>
       <c r="G65" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1947,22 +1962,22 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>141</v>
       </c>
       <c r="F66">
-        <v>55.3</v>
+        <v>57.4</v>
       </c>
       <c r="G66" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1970,10 +1985,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -1985,7 +2000,7 @@
         <v>58.3</v>
       </c>
       <c r="G67" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1993,22 +2008,22 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D68">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E68">
         <v>498</v>
       </c>
       <c r="F68">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G68" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2016,22 +2031,22 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D69">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="E69">
         <v>865</v>
       </c>
       <c r="F69">
-        <v>41</v>
+        <v>42.1</v>
       </c>
       <c r="G69" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2039,13 +2054,13 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D70">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E70">
         <v>1825</v>
@@ -2054,7 +2069,7 @@
         <v>24.9</v>
       </c>
       <c r="G70" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2062,10 +2077,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D71">
         <v>34</v>
@@ -2077,7 +2092,7 @@
         <v>24.1</v>
       </c>
       <c r="G71" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2085,10 +2100,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D72">
         <v>12</v>
@@ -2100,7 +2115,7 @@
         <v>100</v>
       </c>
       <c r="G72" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2108,22 +2123,22 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D73">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E73">
         <v>498</v>
       </c>
       <c r="F73">
-        <v>93.40000000000001</v>
+        <v>93</v>
       </c>
       <c r="G73" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2131,22 +2146,22 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D74">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E74">
         <v>865</v>
       </c>
       <c r="F74">
-        <v>87.5</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="G74" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2154,22 +2169,22 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D75">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="E75">
         <v>1825</v>
       </c>
       <c r="F75">
-        <v>75.7</v>
+        <v>75.5</v>
       </c>
       <c r="G75" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2177,22 +2192,22 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E76">
         <v>141</v>
       </c>
       <c r="F76">
-        <v>82.3</v>
+        <v>83</v>
       </c>
       <c r="G76" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2200,10 +2215,10 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -2215,7 +2230,7 @@
         <v>83.3</v>
       </c>
       <c r="G77" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2223,22 +2238,22 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D78">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="E78">
         <v>498</v>
       </c>
       <c r="F78">
-        <v>68.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="G78" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2246,22 +2261,22 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D79">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="E79">
         <v>865</v>
       </c>
       <c r="F79">
-        <v>57.5</v>
+        <v>52.9</v>
       </c>
       <c r="G79" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2269,22 +2284,22 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D80">
-        <v>791</v>
+        <v>761</v>
       </c>
       <c r="E80">
         <v>1825</v>
       </c>
       <c r="F80">
-        <v>43.3</v>
+        <v>41.7</v>
       </c>
       <c r="G80" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2292,22 +2307,22 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D81">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E81">
         <v>141</v>
       </c>
       <c r="F81">
-        <v>46.1</v>
+        <v>45.4</v>
       </c>
       <c r="G81" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2315,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D82">
         <v>12</v>
@@ -2330,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="G82" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2338,22 +2353,22 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D83">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="E83">
         <v>498</v>
       </c>
       <c r="F83">
-        <v>82.90000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="G83" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2361,22 +2376,22 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D84">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="E84">
         <v>865</v>
       </c>
       <c r="F84">
-        <v>80.3</v>
+        <v>81.2</v>
       </c>
       <c r="G84" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2384,22 +2399,22 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D85">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="E85">
         <v>1825</v>
       </c>
       <c r="F85">
-        <v>66.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="G85" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2407,22 +2422,22 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D86">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E86">
         <v>141</v>
       </c>
       <c r="F86">
-        <v>60.3</v>
+        <v>63.1</v>
       </c>
       <c r="G86" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2430,10 +2445,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2445,7 +2460,7 @@
         <v>50</v>
       </c>
       <c r="G87" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2453,22 +2468,22 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D88">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E88">
         <v>498</v>
       </c>
       <c r="F88">
-        <v>49.6</v>
+        <v>47.8</v>
       </c>
       <c r="G88" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2476,22 +2491,22 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D89">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E89">
         <v>865</v>
       </c>
       <c r="F89">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="G89" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2499,22 +2514,22 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C90" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D90">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="E90">
         <v>1825</v>
       </c>
       <c r="F90">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="G90" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2522,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D91">
         <v>47</v>
@@ -2537,7 +2552,7 @@
         <v>33.3</v>
       </c>
       <c r="G91" s="2">
-        <v>44376</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2545,22 +2560,22 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>12</v>
       </c>
       <c r="F92">
-        <v>66.7</v>
+        <v>83.3</v>
       </c>
       <c r="G92" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2568,22 +2583,22 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D93">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="E93">
         <v>498</v>
       </c>
       <c r="F93">
-        <v>63.5</v>
+        <v>71.7</v>
       </c>
       <c r="G93" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2591,22 +2606,22 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D94">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="E94">
         <v>865</v>
       </c>
       <c r="F94">
-        <v>56.2</v>
+        <v>64.2</v>
       </c>
       <c r="G94" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2614,22 +2629,22 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D95">
-        <v>882</v>
+        <v>981</v>
       </c>
       <c r="E95">
         <v>1825</v>
       </c>
       <c r="F95">
-        <v>48.3</v>
+        <v>53.8</v>
       </c>
       <c r="G95" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2637,22 +2652,22 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D96">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E96">
         <v>141</v>
       </c>
       <c r="F96">
-        <v>48.2</v>
+        <v>55.3</v>
       </c>
       <c r="G96" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2660,22 +2675,22 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D97">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E97">
         <v>12</v>
       </c>
       <c r="F97">
-        <v>66.7</v>
+        <v>58.3</v>
       </c>
       <c r="G97" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2683,22 +2698,22 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C98" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D98">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="E98">
         <v>498</v>
       </c>
       <c r="F98">
-        <v>52.2</v>
+        <v>54.4</v>
       </c>
       <c r="G98" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2706,22 +2721,22 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D99">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="E99">
         <v>865</v>
       </c>
       <c r="F99">
-        <v>40.2</v>
+        <v>41.2</v>
       </c>
       <c r="G99" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2729,22 +2744,22 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D100">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="E100">
         <v>1825</v>
       </c>
       <c r="F100">
-        <v>24.1</v>
+        <v>24.9</v>
       </c>
       <c r="G100" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2752,22 +2767,22 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D101">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E101">
         <v>141</v>
       </c>
       <c r="F101">
-        <v>24.8</v>
+        <v>24.1</v>
       </c>
       <c r="G101" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2775,10 +2790,10 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D102">
         <v>12</v>
@@ -2790,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="G102" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2798,22 +2813,22 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D103">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E103">
         <v>498</v>
       </c>
       <c r="F103">
-        <v>93.2</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G103" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2821,22 +2836,22 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D104">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="E104">
         <v>865</v>
       </c>
       <c r="F104">
-        <v>88.40000000000001</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G104" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2844,22 +2859,22 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D105">
-        <v>1397</v>
+        <v>1380</v>
       </c>
       <c r="E105">
         <v>1825</v>
       </c>
       <c r="F105">
-        <v>76.5</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G105" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2867,22 +2882,22 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D106">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E106">
         <v>141</v>
       </c>
       <c r="F106">
-        <v>85.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="G106" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2890,22 +2905,22 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D107">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>12</v>
       </c>
       <c r="F107">
-        <v>91.7</v>
+        <v>83.3</v>
       </c>
       <c r="G107" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2913,22 +2928,22 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D108">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E108">
         <v>498</v>
       </c>
       <c r="F108">
-        <v>69.5</v>
+        <v>68.7</v>
       </c>
       <c r="G108" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2936,22 +2951,22 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D109">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="E109">
         <v>865</v>
       </c>
       <c r="F109">
-        <v>59.9</v>
+        <v>56.9</v>
       </c>
       <c r="G109" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2959,22 +2974,22 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D110">
-        <v>833</v>
+        <v>789</v>
       </c>
       <c r="E110">
         <v>1825</v>
       </c>
       <c r="F110">
-        <v>45.6</v>
+        <v>43.2</v>
       </c>
       <c r="G110" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2982,22 +2997,22 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D111">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E111">
         <v>141</v>
       </c>
       <c r="F111">
-        <v>47.5</v>
+        <v>44.7</v>
       </c>
       <c r="G111" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3005,22 +3020,22 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <v>12</v>
       </c>
       <c r="F112">
-        <v>91.7</v>
+        <v>100</v>
       </c>
       <c r="G112" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3028,22 +3043,22 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D113">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="E113">
         <v>498</v>
       </c>
       <c r="F113">
-        <v>76.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="G113" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3051,22 +3066,22 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D114">
-        <v>667</v>
+        <v>697</v>
       </c>
       <c r="E114">
         <v>865</v>
       </c>
       <c r="F114">
-        <v>77.09999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G114" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3074,22 +3089,22 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D115">
-        <v>1159</v>
+        <v>1225</v>
       </c>
       <c r="E115">
         <v>1825</v>
       </c>
       <c r="F115">
-        <v>63.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G115" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3097,22 +3112,22 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D116">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E116">
         <v>141</v>
       </c>
       <c r="F116">
-        <v>61</v>
+        <v>62.4</v>
       </c>
       <c r="G116" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3120,22 +3135,22 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C117" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E117">
         <v>12</v>
       </c>
       <c r="F117">
-        <v>41.7</v>
+        <v>50</v>
       </c>
       <c r="G117" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3143,22 +3158,22 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C118" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D118">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E118">
         <v>498</v>
       </c>
       <c r="F118">
-        <v>49.4</v>
+        <v>49.6</v>
       </c>
       <c r="G118" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3166,22 +3181,22 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D119">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E119">
         <v>865</v>
       </c>
       <c r="F119">
-        <v>44.2</v>
+        <v>43.7</v>
       </c>
       <c r="G119" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3189,22 +3204,22 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D120">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="E120">
         <v>1825</v>
       </c>
       <c r="F120">
-        <v>36.4</v>
+        <v>37.2</v>
       </c>
       <c r="G120" s="2">
-        <v>44453</v>
+        <v>44361</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3212,22 +3227,3472 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D121">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E121">
         <v>141</v>
       </c>
       <c r="F121">
+        <v>33.3</v>
+      </c>
+      <c r="G121" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>12</v>
+      </c>
+      <c r="F122">
+        <v>83.3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123">
+        <v>356</v>
+      </c>
+      <c r="E123">
+        <v>498</v>
+      </c>
+      <c r="F123">
+        <v>71.5</v>
+      </c>
+      <c r="G123" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>556</v>
+      </c>
+      <c r="E124">
+        <v>865</v>
+      </c>
+      <c r="F124">
+        <v>64.3</v>
+      </c>
+      <c r="G124" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125">
+        <v>976</v>
+      </c>
+      <c r="E125">
+        <v>1825</v>
+      </c>
+      <c r="F125">
+        <v>53.5</v>
+      </c>
+      <c r="G125" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>26</v>
+      </c>
+      <c r="D126">
+        <v>78</v>
+      </c>
+      <c r="E126">
+        <v>141</v>
+      </c>
+      <c r="F126">
+        <v>55.3</v>
+      </c>
+      <c r="G126" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>12</v>
+      </c>
+      <c r="F127">
+        <v>58.3</v>
+      </c>
+      <c r="G127" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128">
+        <v>269</v>
+      </c>
+      <c r="E128">
+        <v>498</v>
+      </c>
+      <c r="F128">
+        <v>54</v>
+      </c>
+      <c r="G128" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129">
+        <v>355</v>
+      </c>
+      <c r="E129">
+        <v>865</v>
+      </c>
+      <c r="F129">
+        <v>41</v>
+      </c>
+      <c r="G129" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130">
+        <v>454</v>
+      </c>
+      <c r="E130">
+        <v>1825</v>
+      </c>
+      <c r="F130">
+        <v>24.9</v>
+      </c>
+      <c r="G130" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131">
+        <v>34</v>
+      </c>
+      <c r="E131">
+        <v>141</v>
+      </c>
+      <c r="F131">
+        <v>24.1</v>
+      </c>
+      <c r="G131" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>22</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+      <c r="E132">
+        <v>12</v>
+      </c>
+      <c r="F132">
+        <v>100</v>
+      </c>
+      <c r="G132" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133">
+        <v>465</v>
+      </c>
+      <c r="E133">
+        <v>498</v>
+      </c>
+      <c r="F133">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="G133" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134">
+        <v>757</v>
+      </c>
+      <c r="E134">
+        <v>865</v>
+      </c>
+      <c r="F134">
+        <v>87.5</v>
+      </c>
+      <c r="G134" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135">
+        <v>1382</v>
+      </c>
+      <c r="E135">
+        <v>1825</v>
+      </c>
+      <c r="F135">
+        <v>75.7</v>
+      </c>
+      <c r="G135" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>26</v>
+      </c>
+      <c r="D136">
+        <v>116</v>
+      </c>
+      <c r="E136">
+        <v>141</v>
+      </c>
+      <c r="F136">
+        <v>82.3</v>
+      </c>
+      <c r="G136" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137">
+        <v>10</v>
+      </c>
+      <c r="E137">
+        <v>12</v>
+      </c>
+      <c r="F137">
+        <v>83.3</v>
+      </c>
+      <c r="G137" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>339</v>
+      </c>
+      <c r="E138">
+        <v>498</v>
+      </c>
+      <c r="F138">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="G138" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139">
+        <v>497</v>
+      </c>
+      <c r="E139">
+        <v>865</v>
+      </c>
+      <c r="F139">
+        <v>57.5</v>
+      </c>
+      <c r="G139" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140">
+        <v>791</v>
+      </c>
+      <c r="E140">
+        <v>1825</v>
+      </c>
+      <c r="F140">
+        <v>43.3</v>
+      </c>
+      <c r="G140" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141">
+        <v>65</v>
+      </c>
+      <c r="E141">
+        <v>141</v>
+      </c>
+      <c r="F141">
+        <v>46.1</v>
+      </c>
+      <c r="G141" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>22</v>
+      </c>
+      <c r="D142">
+        <v>12</v>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+      <c r="G142" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143">
+        <v>413</v>
+      </c>
+      <c r="E143">
+        <v>498</v>
+      </c>
+      <c r="F143">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="G143" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144">
+        <v>695</v>
+      </c>
+      <c r="E144">
+        <v>865</v>
+      </c>
+      <c r="F144">
+        <v>80.3</v>
+      </c>
+      <c r="G144" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>20</v>
+      </c>
+      <c r="C145" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145">
+        <v>1219</v>
+      </c>
+      <c r="E145">
+        <v>1825</v>
+      </c>
+      <c r="F145">
+        <v>66.8</v>
+      </c>
+      <c r="G145" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>20</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146">
+        <v>85</v>
+      </c>
+      <c r="E146">
+        <v>141</v>
+      </c>
+      <c r="F146">
+        <v>60.3</v>
+      </c>
+      <c r="G146" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>12</v>
+      </c>
+      <c r="F147">
+        <v>50</v>
+      </c>
+      <c r="G147" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148">
+        <v>247</v>
+      </c>
+      <c r="E148">
+        <v>498</v>
+      </c>
+      <c r="F148">
+        <v>49.6</v>
+      </c>
+      <c r="G148" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>21</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149">
+        <v>383</v>
+      </c>
+      <c r="E149">
+        <v>865</v>
+      </c>
+      <c r="F149">
+        <v>44.3</v>
+      </c>
+      <c r="G149" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150">
+        <v>679</v>
+      </c>
+      <c r="E150">
+        <v>1825</v>
+      </c>
+      <c r="F150">
+        <v>37.2</v>
+      </c>
+      <c r="G150" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151">
+        <v>47</v>
+      </c>
+      <c r="E151">
+        <v>141</v>
+      </c>
+      <c r="F151">
+        <v>33.3</v>
+      </c>
+      <c r="G151" s="2">
+        <v>44376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+      <c r="C152" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152">
+        <v>10</v>
+      </c>
+      <c r="E152">
+        <v>12</v>
+      </c>
+      <c r="F152">
+        <v>83.3</v>
+      </c>
+      <c r="G152" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153">
+        <v>346</v>
+      </c>
+      <c r="E153">
+        <v>498</v>
+      </c>
+      <c r="F153">
+        <v>69.5</v>
+      </c>
+      <c r="G153" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154">
+        <v>536</v>
+      </c>
+      <c r="E154">
+        <v>865</v>
+      </c>
+      <c r="F154">
+        <v>62</v>
+      </c>
+      <c r="G154" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155">
+        <v>948</v>
+      </c>
+      <c r="E155">
+        <v>1825</v>
+      </c>
+      <c r="F155">
+        <v>51.9</v>
+      </c>
+      <c r="G155" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156">
+        <v>72</v>
+      </c>
+      <c r="E156">
+        <v>141</v>
+      </c>
+      <c r="F156">
+        <v>51.1</v>
+      </c>
+      <c r="G156" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157" t="s">
+        <v>22</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <v>58.3</v>
+      </c>
+      <c r="G157" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" t="s">
+        <v>23</v>
+      </c>
+      <c r="D158">
+        <v>268</v>
+      </c>
+      <c r="E158">
+        <v>498</v>
+      </c>
+      <c r="F158">
+        <v>53.8</v>
+      </c>
+      <c r="G158" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159">
+        <v>350</v>
+      </c>
+      <c r="E159">
+        <v>865</v>
+      </c>
+      <c r="F159">
+        <v>40.5</v>
+      </c>
+      <c r="G159" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B160" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160">
+        <v>450</v>
+      </c>
+      <c r="E160">
+        <v>1825</v>
+      </c>
+      <c r="F160">
+        <v>24.7</v>
+      </c>
+      <c r="G160" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161">
+        <v>34</v>
+      </c>
+      <c r="E161">
+        <v>141</v>
+      </c>
+      <c r="F161">
+        <v>24.1</v>
+      </c>
+      <c r="G161" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
+      <c r="G162" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163">
+        <v>466</v>
+      </c>
+      <c r="E163">
+        <v>498</v>
+      </c>
+      <c r="F163">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G163" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164">
+        <v>753</v>
+      </c>
+      <c r="E164">
+        <v>865</v>
+      </c>
+      <c r="F164">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="G164" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165">
+        <v>1377</v>
+      </c>
+      <c r="E165">
+        <v>1825</v>
+      </c>
+      <c r="F165">
+        <v>75.5</v>
+      </c>
+      <c r="G165" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>26</v>
+      </c>
+      <c r="D166">
+        <v>115</v>
+      </c>
+      <c r="E166">
+        <v>141</v>
+      </c>
+      <c r="F166">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="G166" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>10</v>
+      </c>
+      <c r="E167">
+        <v>12</v>
+      </c>
+      <c r="F167">
+        <v>83.3</v>
+      </c>
+      <c r="G167" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168">
+        <v>344</v>
+      </c>
+      <c r="E168">
+        <v>498</v>
+      </c>
+      <c r="F168">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G168" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169">
+        <v>504</v>
+      </c>
+      <c r="E169">
+        <v>865</v>
+      </c>
+      <c r="F169">
+        <v>58.3</v>
+      </c>
+      <c r="G169" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" t="s">
+        <v>25</v>
+      </c>
+      <c r="D170">
+        <v>809</v>
+      </c>
+      <c r="E170">
+        <v>1825</v>
+      </c>
+      <c r="F170">
+        <v>44.3</v>
+      </c>
+      <c r="G170" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171">
+        <v>68</v>
+      </c>
+      <c r="E171">
+        <v>141</v>
+      </c>
+      <c r="F171">
+        <v>48.2</v>
+      </c>
+      <c r="G171" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B172" t="s">
+        <v>20</v>
+      </c>
+      <c r="C172" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172">
+        <v>11</v>
+      </c>
+      <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="F172">
+        <v>91.7</v>
+      </c>
+      <c r="G172" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B173" t="s">
+        <v>20</v>
+      </c>
+      <c r="C173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173">
+        <v>406</v>
+      </c>
+      <c r="E173">
+        <v>498</v>
+      </c>
+      <c r="F173">
+        <v>81.5</v>
+      </c>
+      <c r="G173" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B174" t="s">
+        <v>20</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174">
+        <v>682</v>
+      </c>
+      <c r="E174">
+        <v>865</v>
+      </c>
+      <c r="F174">
+        <v>78.8</v>
+      </c>
+      <c r="G174" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175">
+        <v>1202</v>
+      </c>
+      <c r="E175">
+        <v>1825</v>
+      </c>
+      <c r="F175">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="G175" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B176" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176">
+        <v>86</v>
+      </c>
+      <c r="E176">
+        <v>141</v>
+      </c>
+      <c r="F176">
+        <v>61</v>
+      </c>
+      <c r="G176" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B177" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+      <c r="D177">
+        <v>5</v>
+      </c>
+      <c r="E177">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>41.7</v>
+      </c>
+      <c r="G177" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" t="s">
+        <v>23</v>
+      </c>
+      <c r="D178">
+        <v>243</v>
+      </c>
+      <c r="E178">
+        <v>498</v>
+      </c>
+      <c r="F178">
+        <v>48.8</v>
+      </c>
+      <c r="G178" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B179" t="s">
+        <v>21</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>387</v>
+      </c>
+      <c r="E179">
+        <v>865</v>
+      </c>
+      <c r="F179">
+        <v>44.7</v>
+      </c>
+      <c r="G179" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D180">
+        <v>676</v>
+      </c>
+      <c r="E180">
+        <v>1825</v>
+      </c>
+      <c r="F180">
+        <v>37</v>
+      </c>
+      <c r="G180" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B181" t="s">
+        <v>21</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181">
+        <v>46</v>
+      </c>
+      <c r="E181">
+        <v>141</v>
+      </c>
+      <c r="F181">
+        <v>32.6</v>
+      </c>
+      <c r="G181" s="2">
+        <v>44389</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182">
+        <v>10</v>
+      </c>
+      <c r="E182">
+        <v>12</v>
+      </c>
+      <c r="F182">
+        <v>83.3</v>
+      </c>
+      <c r="G182" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>13</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183">
+        <v>327</v>
+      </c>
+      <c r="E183">
+        <v>498</v>
+      </c>
+      <c r="F183">
+        <v>65.7</v>
+      </c>
+      <c r="G183" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184">
+        <v>513</v>
+      </c>
+      <c r="E184">
+        <v>865</v>
+      </c>
+      <c r="F184">
+        <v>59.3</v>
+      </c>
+      <c r="G184" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185">
+        <v>924</v>
+      </c>
+      <c r="E185">
+        <v>1825</v>
+      </c>
+      <c r="F185">
+        <v>50.6</v>
+      </c>
+      <c r="G185" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>26</v>
+      </c>
+      <c r="D186">
+        <v>72</v>
+      </c>
+      <c r="E186">
+        <v>141</v>
+      </c>
+      <c r="F186">
+        <v>51.1</v>
+      </c>
+      <c r="G186" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C187" t="s">
+        <v>22</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187">
+        <v>12</v>
+      </c>
+      <c r="F187">
+        <v>58.3</v>
+      </c>
+      <c r="G187" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>13</v>
+      </c>
+      <c r="B188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" t="s">
+        <v>23</v>
+      </c>
+      <c r="D188">
+        <v>265</v>
+      </c>
+      <c r="E188">
+        <v>498</v>
+      </c>
+      <c r="F188">
+        <v>53.2</v>
+      </c>
+      <c r="G188" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>13</v>
+      </c>
+      <c r="B189" t="s">
+        <v>17</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189">
+        <v>347</v>
+      </c>
+      <c r="E189">
+        <v>865</v>
+      </c>
+      <c r="F189">
+        <v>40.1</v>
+      </c>
+      <c r="G189" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190" t="s">
+        <v>25</v>
+      </c>
+      <c r="D190">
+        <v>456</v>
+      </c>
+      <c r="E190">
+        <v>1825</v>
+      </c>
+      <c r="F190">
+        <v>25</v>
+      </c>
+      <c r="G190" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" t="s">
+        <v>26</v>
+      </c>
+      <c r="D191">
+        <v>35</v>
+      </c>
+      <c r="E191">
+        <v>141</v>
+      </c>
+      <c r="F191">
+        <v>24.8</v>
+      </c>
+      <c r="G191" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>22</v>
+      </c>
+      <c r="D192">
+        <v>12</v>
+      </c>
+      <c r="E192">
+        <v>12</v>
+      </c>
+      <c r="F192">
+        <v>100</v>
+      </c>
+      <c r="G192" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>23</v>
+      </c>
+      <c r="D193">
+        <v>463</v>
+      </c>
+      <c r="E193">
+        <v>498</v>
+      </c>
+      <c r="F193">
+        <v>93</v>
+      </c>
+      <c r="G193" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194">
+        <v>751</v>
+      </c>
+      <c r="E194">
+        <v>865</v>
+      </c>
+      <c r="F194">
+        <v>86.8</v>
+      </c>
+      <c r="G194" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>25</v>
+      </c>
+      <c r="D195">
+        <v>1377</v>
+      </c>
+      <c r="E195">
+        <v>1825</v>
+      </c>
+      <c r="F195">
+        <v>75.5</v>
+      </c>
+      <c r="G195" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>26</v>
+      </c>
+      <c r="D196">
+        <v>116</v>
+      </c>
+      <c r="E196">
+        <v>141</v>
+      </c>
+      <c r="F196">
+        <v>82.3</v>
+      </c>
+      <c r="G196" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+      <c r="E197">
+        <v>12</v>
+      </c>
+      <c r="F197">
+        <v>75</v>
+      </c>
+      <c r="G197" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" t="s">
+        <v>23</v>
+      </c>
+      <c r="D198">
+        <v>344</v>
+      </c>
+      <c r="E198">
+        <v>498</v>
+      </c>
+      <c r="F198">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G198" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199">
+        <v>503</v>
+      </c>
+      <c r="E199">
+        <v>865</v>
+      </c>
+      <c r="F199">
+        <v>58.2</v>
+      </c>
+      <c r="G199" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>25</v>
+      </c>
+      <c r="D200">
+        <v>821</v>
+      </c>
+      <c r="E200">
+        <v>1825</v>
+      </c>
+      <c r="F200">
+        <v>45</v>
+      </c>
+      <c r="G200" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" t="s">
+        <v>26</v>
+      </c>
+      <c r="D201">
+        <v>72</v>
+      </c>
+      <c r="E201">
+        <v>141</v>
+      </c>
+      <c r="F201">
+        <v>51.1</v>
+      </c>
+      <c r="G201" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>20</v>
+      </c>
+      <c r="C202" t="s">
+        <v>22</v>
+      </c>
+      <c r="D202">
+        <v>11</v>
+      </c>
+      <c r="E202">
+        <v>12</v>
+      </c>
+      <c r="F202">
+        <v>91.7</v>
+      </c>
+      <c r="G202" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" t="s">
+        <v>23</v>
+      </c>
+      <c r="D203">
+        <v>392</v>
+      </c>
+      <c r="E203">
+        <v>498</v>
+      </c>
+      <c r="F203">
+        <v>78.7</v>
+      </c>
+      <c r="G203" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" t="s">
+        <v>20</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204">
+        <v>672</v>
+      </c>
+      <c r="E204">
+        <v>865</v>
+      </c>
+      <c r="F204">
+        <v>77.7</v>
+      </c>
+      <c r="G204" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" t="s">
+        <v>20</v>
+      </c>
+      <c r="C205" t="s">
+        <v>25</v>
+      </c>
+      <c r="D205">
+        <v>1197</v>
+      </c>
+      <c r="E205">
+        <v>1825</v>
+      </c>
+      <c r="F205">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="G205" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" t="s">
+        <v>20</v>
+      </c>
+      <c r="C206" t="s">
+        <v>26</v>
+      </c>
+      <c r="D206">
+        <v>85</v>
+      </c>
+      <c r="E206">
+        <v>141</v>
+      </c>
+      <c r="F206">
+        <v>60.3</v>
+      </c>
+      <c r="G206" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" t="s">
+        <v>21</v>
+      </c>
+      <c r="C207" t="s">
+        <v>22</v>
+      </c>
+      <c r="D207">
+        <v>5</v>
+      </c>
+      <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>41.7</v>
+      </c>
+      <c r="G207" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B208" t="s">
+        <v>21</v>
+      </c>
+      <c r="C208" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208">
+        <v>247</v>
+      </c>
+      <c r="E208">
+        <v>498</v>
+      </c>
+      <c r="F208">
+        <v>49.6</v>
+      </c>
+      <c r="G208" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" t="s">
+        <v>21</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209">
+        <v>387</v>
+      </c>
+      <c r="E209">
+        <v>865</v>
+      </c>
+      <c r="F209">
+        <v>44.7</v>
+      </c>
+      <c r="G209" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" t="s">
+        <v>21</v>
+      </c>
+      <c r="C210" t="s">
+        <v>25</v>
+      </c>
+      <c r="D210">
+        <v>672</v>
+      </c>
+      <c r="E210">
+        <v>1825</v>
+      </c>
+      <c r="F210">
+        <v>36.8</v>
+      </c>
+      <c r="G210" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" t="s">
+        <v>26</v>
+      </c>
+      <c r="D211">
+        <v>46</v>
+      </c>
+      <c r="E211">
+        <v>141</v>
+      </c>
+      <c r="F211">
+        <v>32.6</v>
+      </c>
+      <c r="G211" s="2">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+      <c r="C212" t="s">
+        <v>22</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+      <c r="E212">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>66.7</v>
+      </c>
+      <c r="G212" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213" t="s">
+        <v>16</v>
+      </c>
+      <c r="C213" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213">
+        <v>316</v>
+      </c>
+      <c r="E213">
+        <v>498</v>
+      </c>
+      <c r="F213">
+        <v>63.5</v>
+      </c>
+      <c r="G213" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214">
+        <v>486</v>
+      </c>
+      <c r="E214">
+        <v>865</v>
+      </c>
+      <c r="F214">
+        <v>56.2</v>
+      </c>
+      <c r="G214" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215" t="s">
+        <v>16</v>
+      </c>
+      <c r="C215" t="s">
+        <v>25</v>
+      </c>
+      <c r="D215">
+        <v>882</v>
+      </c>
+      <c r="E215">
+        <v>1825</v>
+      </c>
+      <c r="F215">
+        <v>48.3</v>
+      </c>
+      <c r="G215" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" t="s">
+        <v>16</v>
+      </c>
+      <c r="C216" t="s">
+        <v>26</v>
+      </c>
+      <c r="D216">
+        <v>68</v>
+      </c>
+      <c r="E216">
+        <v>141</v>
+      </c>
+      <c r="F216">
+        <v>48.2</v>
+      </c>
+      <c r="G216" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217" t="s">
+        <v>17</v>
+      </c>
+      <c r="C217" t="s">
+        <v>22</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217">
+        <v>12</v>
+      </c>
+      <c r="F217">
+        <v>66.7</v>
+      </c>
+      <c r="G217" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218">
+        <v>260</v>
+      </c>
+      <c r="E218">
+        <v>498</v>
+      </c>
+      <c r="F218">
+        <v>52.2</v>
+      </c>
+      <c r="G218" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219" t="s">
+        <v>17</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219">
+        <v>348</v>
+      </c>
+      <c r="E219">
+        <v>865</v>
+      </c>
+      <c r="F219">
+        <v>40.2</v>
+      </c>
+      <c r="G219" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220" t="s">
+        <v>17</v>
+      </c>
+      <c r="C220" t="s">
+        <v>25</v>
+      </c>
+      <c r="D220">
+        <v>439</v>
+      </c>
+      <c r="E220">
+        <v>1825</v>
+      </c>
+      <c r="F220">
+        <v>24.1</v>
+      </c>
+      <c r="G220" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" t="s">
+        <v>26</v>
+      </c>
+      <c r="D221">
+        <v>35</v>
+      </c>
+      <c r="E221">
+        <v>141</v>
+      </c>
+      <c r="F221">
+        <v>24.8</v>
+      </c>
+      <c r="G221" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>18</v>
+      </c>
+      <c r="C222" t="s">
+        <v>22</v>
+      </c>
+      <c r="D222">
+        <v>12</v>
+      </c>
+      <c r="E222">
+        <v>12</v>
+      </c>
+      <c r="F222">
+        <v>100</v>
+      </c>
+      <c r="G222" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>18</v>
+      </c>
+      <c r="C223" t="s">
+        <v>23</v>
+      </c>
+      <c r="D223">
+        <v>464</v>
+      </c>
+      <c r="E223">
+        <v>498</v>
+      </c>
+      <c r="F223">
+        <v>93.2</v>
+      </c>
+      <c r="G223" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224" t="s">
+        <v>18</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224">
+        <v>765</v>
+      </c>
+      <c r="E224">
+        <v>865</v>
+      </c>
+      <c r="F224">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G224" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" t="s">
+        <v>25</v>
+      </c>
+      <c r="D225">
+        <v>1397</v>
+      </c>
+      <c r="E225">
+        <v>1825</v>
+      </c>
+      <c r="F225">
+        <v>76.5</v>
+      </c>
+      <c r="G225" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226" t="s">
+        <v>18</v>
+      </c>
+      <c r="C226" t="s">
+        <v>26</v>
+      </c>
+      <c r="D226">
+        <v>120</v>
+      </c>
+      <c r="E226">
+        <v>141</v>
+      </c>
+      <c r="F226">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="G226" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" t="s">
+        <v>22</v>
+      </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
+      <c r="E227">
+        <v>12</v>
+      </c>
+      <c r="F227">
+        <v>91.7</v>
+      </c>
+      <c r="G227" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228">
+        <v>346</v>
+      </c>
+      <c r="E228">
+        <v>498</v>
+      </c>
+      <c r="F228">
+        <v>69.5</v>
+      </c>
+      <c r="G228" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229">
+        <v>518</v>
+      </c>
+      <c r="E229">
+        <v>865</v>
+      </c>
+      <c r="F229">
+        <v>59.9</v>
+      </c>
+      <c r="G229" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" t="s">
+        <v>25</v>
+      </c>
+      <c r="D230">
+        <v>833</v>
+      </c>
+      <c r="E230">
+        <v>1825</v>
+      </c>
+      <c r="F230">
+        <v>45.6</v>
+      </c>
+      <c r="G230" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" t="s">
+        <v>26</v>
+      </c>
+      <c r="D231">
+        <v>67</v>
+      </c>
+      <c r="E231">
+        <v>141</v>
+      </c>
+      <c r="F231">
+        <v>47.5</v>
+      </c>
+      <c r="G231" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232" t="s">
+        <v>20</v>
+      </c>
+      <c r="C232" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
+      <c r="E232">
+        <v>12</v>
+      </c>
+      <c r="F232">
+        <v>91.7</v>
+      </c>
+      <c r="G232" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233" t="s">
+        <v>20</v>
+      </c>
+      <c r="C233" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233">
+        <v>382</v>
+      </c>
+      <c r="E233">
+        <v>498</v>
+      </c>
+      <c r="F233">
+        <v>76.7</v>
+      </c>
+      <c r="G233" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234">
+        <v>667</v>
+      </c>
+      <c r="E234">
+        <v>865</v>
+      </c>
+      <c r="F234">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="G234" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235" t="s">
+        <v>20</v>
+      </c>
+      <c r="C235" t="s">
+        <v>25</v>
+      </c>
+      <c r="D235">
+        <v>1159</v>
+      </c>
+      <c r="E235">
+        <v>1825</v>
+      </c>
+      <c r="F235">
+        <v>63.5</v>
+      </c>
+      <c r="G235" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236" t="s">
+        <v>20</v>
+      </c>
+      <c r="C236" t="s">
+        <v>26</v>
+      </c>
+      <c r="D236">
+        <v>86</v>
+      </c>
+      <c r="E236">
+        <v>141</v>
+      </c>
+      <c r="F236">
+        <v>61</v>
+      </c>
+      <c r="G236" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" t="s">
+        <v>22</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237">
+        <v>12</v>
+      </c>
+      <c r="F237">
+        <v>41.7</v>
+      </c>
+      <c r="G237" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238">
+        <v>246</v>
+      </c>
+      <c r="E238">
+        <v>498</v>
+      </c>
+      <c r="F238">
+        <v>49.4</v>
+      </c>
+      <c r="G238" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" t="s">
+        <v>24</v>
+      </c>
+      <c r="D239">
+        <v>382</v>
+      </c>
+      <c r="E239">
+        <v>865</v>
+      </c>
+      <c r="F239">
+        <v>44.2</v>
+      </c>
+      <c r="G239" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240" t="s">
+        <v>21</v>
+      </c>
+      <c r="C240" t="s">
+        <v>25</v>
+      </c>
+      <c r="D240">
+        <v>664</v>
+      </c>
+      <c r="E240">
+        <v>1825</v>
+      </c>
+      <c r="F240">
+        <v>36.4</v>
+      </c>
+      <c r="G240" s="2">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" t="s">
+        <v>26</v>
+      </c>
+      <c r="D241">
+        <v>45</v>
+      </c>
+      <c r="E241">
+        <v>141</v>
+      </c>
+      <c r="F241">
         <v>31.9</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G241" s="2">
         <v>44453</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>15</v>
+      </c>
+      <c r="B242" t="s">
+        <v>16</v>
+      </c>
+      <c r="C242" t="s">
+        <v>22</v>
+      </c>
+      <c r="D242">
+        <v>8</v>
+      </c>
+      <c r="E242">
+        <v>12</v>
+      </c>
+      <c r="F242">
+        <v>66.7</v>
+      </c>
+      <c r="G242" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>15</v>
+      </c>
+      <c r="B243" t="s">
+        <v>16</v>
+      </c>
+      <c r="C243" t="s">
+        <v>23</v>
+      </c>
+      <c r="D243">
+        <v>310</v>
+      </c>
+      <c r="E243">
+        <v>498</v>
+      </c>
+      <c r="F243">
+        <v>62.2</v>
+      </c>
+      <c r="G243" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" t="s">
+        <v>16</v>
+      </c>
+      <c r="C244" t="s">
+        <v>24</v>
+      </c>
+      <c r="D244">
+        <v>486</v>
+      </c>
+      <c r="E244">
+        <v>865</v>
+      </c>
+      <c r="F244">
+        <v>56.2</v>
+      </c>
+      <c r="G244" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" t="s">
+        <v>15</v>
+      </c>
+      <c r="B245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C245" t="s">
+        <v>25</v>
+      </c>
+      <c r="D245">
+        <v>886</v>
+      </c>
+      <c r="E245">
+        <v>1825</v>
+      </c>
+      <c r="F245">
+        <v>48.5</v>
+      </c>
+      <c r="G245" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" t="s">
+        <v>15</v>
+      </c>
+      <c r="B246" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" t="s">
+        <v>26</v>
+      </c>
+      <c r="D246">
+        <v>66</v>
+      </c>
+      <c r="E246">
+        <v>141</v>
+      </c>
+      <c r="F246">
+        <v>46.8</v>
+      </c>
+      <c r="G246" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" t="s">
+        <v>15</v>
+      </c>
+      <c r="B247" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" t="s">
+        <v>22</v>
+      </c>
+      <c r="D247">
+        <v>9</v>
+      </c>
+      <c r="E247">
+        <v>12</v>
+      </c>
+      <c r="F247">
+        <v>75</v>
+      </c>
+      <c r="G247" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" t="s">
+        <v>15</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" t="s">
+        <v>23</v>
+      </c>
+      <c r="D248">
+        <v>258</v>
+      </c>
+      <c r="E248">
+        <v>498</v>
+      </c>
+      <c r="F248">
+        <v>51.8</v>
+      </c>
+      <c r="G248" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" t="s">
+        <v>15</v>
+      </c>
+      <c r="B249" t="s">
+        <v>17</v>
+      </c>
+      <c r="C249" t="s">
+        <v>24</v>
+      </c>
+      <c r="D249">
+        <v>347</v>
+      </c>
+      <c r="E249">
+        <v>865</v>
+      </c>
+      <c r="F249">
+        <v>40.1</v>
+      </c>
+      <c r="G249" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" t="s">
+        <v>15</v>
+      </c>
+      <c r="B250" t="s">
+        <v>17</v>
+      </c>
+      <c r="C250" t="s">
+        <v>25</v>
+      </c>
+      <c r="D250">
+        <v>445</v>
+      </c>
+      <c r="E250">
+        <v>1825</v>
+      </c>
+      <c r="F250">
+        <v>24.4</v>
+      </c>
+      <c r="G250" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" t="s">
+        <v>15</v>
+      </c>
+      <c r="B251" t="s">
+        <v>17</v>
+      </c>
+      <c r="C251" t="s">
+        <v>26</v>
+      </c>
+      <c r="D251">
+        <v>33</v>
+      </c>
+      <c r="E251">
+        <v>141</v>
+      </c>
+      <c r="F251">
+        <v>23.4</v>
+      </c>
+      <c r="G251" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" t="s">
+        <v>15</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" t="s">
+        <v>22</v>
+      </c>
+      <c r="D252">
+        <v>12</v>
+      </c>
+      <c r="E252">
+        <v>12</v>
+      </c>
+      <c r="F252">
+        <v>100</v>
+      </c>
+      <c r="G252" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" t="s">
+        <v>15</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253">
+        <v>463</v>
+      </c>
+      <c r="E253">
+        <v>498</v>
+      </c>
+      <c r="F253">
+        <v>93</v>
+      </c>
+      <c r="G253" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" t="s">
+        <v>15</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" t="s">
+        <v>24</v>
+      </c>
+      <c r="D254">
+        <v>765</v>
+      </c>
+      <c r="E254">
+        <v>865</v>
+      </c>
+      <c r="F254">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="G254" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>25</v>
+      </c>
+      <c r="D255">
+        <v>1381</v>
+      </c>
+      <c r="E255">
+        <v>1825</v>
+      </c>
+      <c r="F255">
+        <v>75.7</v>
+      </c>
+      <c r="G255" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" t="s">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>26</v>
+      </c>
+      <c r="D256">
+        <v>117</v>
+      </c>
+      <c r="E256">
+        <v>141</v>
+      </c>
+      <c r="F256">
+        <v>83</v>
+      </c>
+      <c r="G256" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" t="s">
+        <v>15</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" t="s">
+        <v>22</v>
+      </c>
+      <c r="D257">
+        <v>10</v>
+      </c>
+      <c r="E257">
+        <v>12</v>
+      </c>
+      <c r="F257">
+        <v>83.3</v>
+      </c>
+      <c r="G257" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B258" t="s">
+        <v>19</v>
+      </c>
+      <c r="C258" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258">
+        <v>348</v>
+      </c>
+      <c r="E258">
+        <v>498</v>
+      </c>
+      <c r="F258">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="G258" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" t="s">
+        <v>24</v>
+      </c>
+      <c r="D259">
+        <v>515</v>
+      </c>
+      <c r="E259">
+        <v>865</v>
+      </c>
+      <c r="F259">
+        <v>59.5</v>
+      </c>
+      <c r="G259" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B260" t="s">
+        <v>19</v>
+      </c>
+      <c r="C260" t="s">
+        <v>25</v>
+      </c>
+      <c r="D260">
+        <v>816</v>
+      </c>
+      <c r="E260">
+        <v>1825</v>
+      </c>
+      <c r="F260">
+        <v>44.7</v>
+      </c>
+      <c r="G260" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" t="s">
+        <v>26</v>
+      </c>
+      <c r="D261">
+        <v>67</v>
+      </c>
+      <c r="E261">
+        <v>141</v>
+      </c>
+      <c r="F261">
+        <v>47.5</v>
+      </c>
+      <c r="G261" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B262" t="s">
+        <v>20</v>
+      </c>
+      <c r="C262" t="s">
+        <v>22</v>
+      </c>
+      <c r="D262">
+        <v>11</v>
+      </c>
+      <c r="E262">
+        <v>12</v>
+      </c>
+      <c r="F262">
+        <v>91.7</v>
+      </c>
+      <c r="G262" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" t="s">
+        <v>20</v>
+      </c>
+      <c r="C263" t="s">
+        <v>23</v>
+      </c>
+      <c r="D263">
+        <v>372</v>
+      </c>
+      <c r="E263">
+        <v>498</v>
+      </c>
+      <c r="F263">
+        <v>74.7</v>
+      </c>
+      <c r="G263" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B264" t="s">
+        <v>20</v>
+      </c>
+      <c r="C264" t="s">
+        <v>24</v>
+      </c>
+      <c r="D264">
+        <v>659</v>
+      </c>
+      <c r="E264">
+        <v>865</v>
+      </c>
+      <c r="F264">
+        <v>76.2</v>
+      </c>
+      <c r="G264" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B265" t="s">
+        <v>20</v>
+      </c>
+      <c r="C265" t="s">
+        <v>25</v>
+      </c>
+      <c r="D265">
+        <v>1147</v>
+      </c>
+      <c r="E265">
+        <v>1825</v>
+      </c>
+      <c r="F265">
+        <v>62.8</v>
+      </c>
+      <c r="G265" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B266" t="s">
+        <v>20</v>
+      </c>
+      <c r="C266" t="s">
+        <v>26</v>
+      </c>
+      <c r="D266">
+        <v>84</v>
+      </c>
+      <c r="E266">
+        <v>141</v>
+      </c>
+      <c r="F266">
+        <v>59.6</v>
+      </c>
+      <c r="G266" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>21</v>
+      </c>
+      <c r="C267" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>12</v>
+      </c>
+      <c r="F267">
+        <v>41.7</v>
+      </c>
+      <c r="G267" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B268" t="s">
+        <v>21</v>
+      </c>
+      <c r="C268" t="s">
+        <v>23</v>
+      </c>
+      <c r="D268">
+        <v>238</v>
+      </c>
+      <c r="E268">
+        <v>498</v>
+      </c>
+      <c r="F268">
+        <v>47.8</v>
+      </c>
+      <c r="G268" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B269" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269" t="s">
+        <v>24</v>
+      </c>
+      <c r="D269">
+        <v>383</v>
+      </c>
+      <c r="E269">
+        <v>865</v>
+      </c>
+      <c r="F269">
+        <v>44.3</v>
+      </c>
+      <c r="G269" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B270" t="s">
+        <v>21</v>
+      </c>
+      <c r="C270" t="s">
+        <v>25</v>
+      </c>
+      <c r="D270">
+        <v>665</v>
+      </c>
+      <c r="E270">
+        <v>1825</v>
+      </c>
+      <c r="F270">
+        <v>36.4</v>
+      </c>
+      <c r="G270" s="2">
+        <v>44508</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B271" t="s">
+        <v>21</v>
+      </c>
+      <c r="C271" t="s">
+        <v>26</v>
+      </c>
+      <c r="D271">
+        <v>44</v>
+      </c>
+      <c r="E271">
+        <v>141</v>
+      </c>
+      <c r="F271">
+        <v>31.2</v>
+      </c>
+      <c r="G271" s="2">
+        <v>44508</v>
       </c>
     </row>
   </sheetData>

--- a/data/analysis/indicators/indic_pivot_tables/indic-size/indic_counts-m_size.xlsx
+++ b/data/analysis/indicators/indic_pivot_tables/indic-size/indic_counts-m_size.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="34">
   <si>
     <t>session_id</t>
   </si>
@@ -62,6 +62,27 @@
   </si>
   <si>
     <t>20211108</t>
+  </si>
+  <si>
+    <t>20211206</t>
+  </si>
+  <si>
+    <t>20220103</t>
+  </si>
+  <si>
+    <t>20220131</t>
+  </si>
+  <si>
+    <t>20220228</t>
+  </si>
+  <si>
+    <t>20220328</t>
+  </si>
+  <si>
+    <t>20220425</t>
+  </si>
+  <si>
+    <t>20220524</t>
   </si>
   <si>
     <t>closed_cur</t>
@@ -456,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -513,10 +534,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>415</v>
@@ -536,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>660</v>
@@ -559,10 +580,10 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1085</v>
@@ -582,10 +603,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>78</v>
@@ -605,10 +626,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -628,10 +649,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>276</v>
@@ -651,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>361</v>
@@ -674,10 +695,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>434</v>
@@ -697,10 +718,10 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -720,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>12</v>
@@ -743,10 +764,10 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13">
         <v>461</v>
@@ -766,10 +787,10 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D14">
         <v>754</v>
@@ -789,10 +810,10 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>1356</v>
@@ -812,10 +833,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>114</v>
@@ -835,10 +856,10 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -858,10 +879,10 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D18">
         <v>280</v>
@@ -881,10 +902,10 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D19">
         <v>420</v>
@@ -904,10 +925,10 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>709</v>
@@ -927,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>59</v>
@@ -950,10 +971,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D22">
         <v>12</v>
@@ -973,10 +994,10 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>418</v>
@@ -996,10 +1017,10 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>693</v>
@@ -1019,10 +1040,10 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>1207</v>
@@ -1042,10 +1063,10 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>87</v>
@@ -1065,10 +1086,10 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D27">
         <v>7</v>
@@ -1088,10 +1109,10 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>248</v>
@@ -1111,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>384</v>
@@ -1134,10 +1155,10 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D30">
         <v>665</v>
@@ -1157,10 +1178,10 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D31">
         <v>50</v>
@@ -1180,10 +1201,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D32">
         <v>12</v>
@@ -1203,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D33">
         <v>412</v>
@@ -1226,10 +1247,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>659</v>
@@ -1249,10 +1270,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D35">
         <v>1087</v>
@@ -1272,10 +1293,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D36">
         <v>83</v>
@@ -1295,10 +1316,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -1318,10 +1339,10 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>282</v>
@@ -1341,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>375</v>
@@ -1364,10 +1385,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <v>461</v>
@@ -1387,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <v>36</v>
@@ -1410,10 +1431,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -1433,10 +1454,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>464</v>
@@ -1456,10 +1477,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D44">
         <v>764</v>
@@ -1479,10 +1500,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D45">
         <v>1367</v>
@@ -1502,10 +1523,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>115</v>
@@ -1525,10 +1546,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D47">
         <v>8</v>
@@ -1548,10 +1569,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>290</v>
@@ -1571,10 +1592,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>430</v>
@@ -1594,10 +1615,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D50">
         <v>740</v>
@@ -1617,10 +1638,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D51">
         <v>62</v>
@@ -1640,10 +1661,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D52">
         <v>12</v>
@@ -1663,10 +1684,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D53">
         <v>425</v>
@@ -1686,10 +1707,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D54">
         <v>699</v>
@@ -1709,10 +1730,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D55">
         <v>1235</v>
@@ -1732,10 +1753,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D56">
         <v>89</v>
@@ -1755,10 +1776,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D57">
         <v>6</v>
@@ -1778,10 +1799,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D58">
         <v>246</v>
@@ -1801,10 +1822,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D59">
         <v>386</v>
@@ -1824,10 +1845,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D60">
         <v>673</v>
@@ -1847,10 +1868,10 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D61">
         <v>46</v>
@@ -1870,10 +1891,10 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D62">
         <v>12</v>
@@ -1893,10 +1914,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D63">
         <v>382</v>
@@ -1916,10 +1937,10 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D64">
         <v>618</v>
@@ -1939,10 +1960,10 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D65">
         <v>1053</v>
@@ -1962,10 +1983,10 @@
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D66">
         <v>81</v>
@@ -1985,10 +2006,10 @@
         <v>9</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D67">
         <v>7</v>
@@ -2008,10 +2029,10 @@
         <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D68">
         <v>274</v>
@@ -2031,10 +2052,10 @@
         <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D69">
         <v>364</v>
@@ -2054,10 +2075,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D70">
         <v>455</v>
@@ -2077,10 +2098,10 @@
         <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D71">
         <v>34</v>
@@ -2100,10 +2121,10 @@
         <v>9</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D72">
         <v>12</v>
@@ -2123,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D73">
         <v>463</v>
@@ -2146,10 +2167,10 @@
         <v>9</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D74">
         <v>760</v>
@@ -2169,10 +2190,10 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D75">
         <v>1377</v>
@@ -2192,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D76">
         <v>117</v>
@@ -2215,10 +2236,10 @@
         <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D77">
         <v>10</v>
@@ -2238,10 +2259,10 @@
         <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D78">
         <v>312</v>
@@ -2261,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D79">
         <v>458</v>
@@ -2284,10 +2305,10 @@
         <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D80">
         <v>761</v>
@@ -2307,10 +2328,10 @@
         <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D81">
         <v>64</v>
@@ -2330,10 +2351,10 @@
         <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>12</v>
@@ -2353,10 +2374,10 @@
         <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D83">
         <v>425</v>
@@ -2376,10 +2397,10 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C84" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D84">
         <v>702</v>
@@ -2399,10 +2420,10 @@
         <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C85" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D85">
         <v>1239</v>
@@ -2422,10 +2443,10 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>89</v>
@@ -2445,10 +2466,10 @@
         <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D87">
         <v>6</v>
@@ -2468,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D88">
         <v>238</v>
@@ -2491,10 +2512,10 @@
         <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D89">
         <v>386</v>
@@ -2514,10 +2535,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D90">
         <v>682</v>
@@ -2537,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D91">
         <v>47</v>
@@ -2560,10 +2581,10 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D92">
         <v>10</v>
@@ -2583,10 +2604,10 @@
         <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D93">
         <v>357</v>
@@ -2606,10 +2627,10 @@
         <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D94">
         <v>555</v>
@@ -2629,10 +2650,10 @@
         <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D95">
         <v>981</v>
@@ -2652,10 +2673,10 @@
         <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D96">
         <v>78</v>
@@ -2675,10 +2696,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -2698,10 +2719,10 @@
         <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D98">
         <v>271</v>
@@ -2721,10 +2742,10 @@
         <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D99">
         <v>356</v>
@@ -2744,10 +2765,10 @@
         <v>10</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D100">
         <v>454</v>
@@ -2767,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D101">
         <v>34</v>
@@ -2790,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D102">
         <v>12</v>
@@ -2813,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D103">
         <v>466</v>
@@ -2836,10 +2857,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>756</v>
@@ -2859,10 +2880,10 @@
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D105">
         <v>1380</v>
@@ -2882,10 +2903,10 @@
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D106">
         <v>116</v>
@@ -2905,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D107">
         <v>10</v>
@@ -2928,10 +2949,10 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D108">
         <v>342</v>
@@ -2951,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D109">
         <v>492</v>
@@ -2974,10 +2995,10 @@
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C110" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D110">
         <v>789</v>
@@ -2997,10 +3018,10 @@
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D111">
         <v>63</v>
@@ -3020,10 +3041,10 @@
         <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D112">
         <v>12</v>
@@ -3043,10 +3064,10 @@
         <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D113">
         <v>413</v>
@@ -3066,10 +3087,10 @@
         <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D114">
         <v>697</v>
@@ -3089,10 +3110,10 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C115" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D115">
         <v>1225</v>
@@ -3112,10 +3133,10 @@
         <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D116">
         <v>88</v>
@@ -3135,10 +3156,10 @@
         <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D117">
         <v>6</v>
@@ -3158,10 +3179,10 @@
         <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D118">
         <v>247</v>
@@ -3181,10 +3202,10 @@
         <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D119">
         <v>378</v>
@@ -3204,10 +3225,10 @@
         <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D120">
         <v>679</v>
@@ -3227,10 +3248,10 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>47</v>
@@ -3250,10 +3271,10 @@
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C122" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D122">
         <v>10</v>
@@ -3273,10 +3294,10 @@
         <v>11</v>
       </c>
       <c r="B123" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D123">
         <v>356</v>
@@ -3296,10 +3317,10 @@
         <v>11</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D124">
         <v>556</v>
@@ -3319,10 +3340,10 @@
         <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D125">
         <v>976</v>
@@ -3342,10 +3363,10 @@
         <v>11</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D126">
         <v>78</v>
@@ -3365,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C127" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D127">
         <v>7</v>
@@ -3388,10 +3409,10 @@
         <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D128">
         <v>269</v>
@@ -3411,10 +3432,10 @@
         <v>11</v>
       </c>
       <c r="B129" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D129">
         <v>355</v>
@@ -3434,10 +3455,10 @@
         <v>11</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D130">
         <v>454</v>
@@ -3457,10 +3478,10 @@
         <v>11</v>
       </c>
       <c r="B131" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C131" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D131">
         <v>34</v>
@@ -3480,10 +3501,10 @@
         <v>11</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C132" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D132">
         <v>12</v>
@@ -3503,10 +3524,10 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D133">
         <v>465</v>
@@ -3526,10 +3547,10 @@
         <v>11</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C134" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D134">
         <v>757</v>
@@ -3549,10 +3570,10 @@
         <v>11</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C135" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D135">
         <v>1382</v>
@@ -3572,10 +3593,10 @@
         <v>11</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C136" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D136">
         <v>116</v>
@@ -3595,10 +3616,10 @@
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C137" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D137">
         <v>10</v>
@@ -3618,10 +3639,10 @@
         <v>11</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D138">
         <v>339</v>
@@ -3641,10 +3662,10 @@
         <v>11</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D139">
         <v>497</v>
@@ -3664,10 +3685,10 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D140">
         <v>791</v>
@@ -3687,10 +3708,10 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D141">
         <v>65</v>
@@ -3710,10 +3731,10 @@
         <v>11</v>
       </c>
       <c r="B142" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D142">
         <v>12</v>
@@ -3733,10 +3754,10 @@
         <v>11</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C143" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D143">
         <v>413</v>
@@ -3756,10 +3777,10 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D144">
         <v>695</v>
@@ -3779,10 +3800,10 @@
         <v>11</v>
       </c>
       <c r="B145" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C145" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D145">
         <v>1219</v>
@@ -3802,10 +3823,10 @@
         <v>11</v>
       </c>
       <c r="B146" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C146" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D146">
         <v>85</v>
@@ -3825,10 +3846,10 @@
         <v>11</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -3848,10 +3869,10 @@
         <v>11</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C148" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D148">
         <v>247</v>
@@ -3871,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C149" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D149">
         <v>383</v>
@@ -3894,10 +3915,10 @@
         <v>11</v>
       </c>
       <c r="B150" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D150">
         <v>679</v>
@@ -3917,10 +3938,10 @@
         <v>11</v>
       </c>
       <c r="B151" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C151" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D151">
         <v>47</v>
@@ -3940,10 +3961,10 @@
         <v>12</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C152" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D152">
         <v>10</v>
@@ -3963,10 +3984,10 @@
         <v>12</v>
       </c>
       <c r="B153" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C153" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D153">
         <v>346</v>
@@ -3986,10 +4007,10 @@
         <v>12</v>
       </c>
       <c r="B154" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C154" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D154">
         <v>536</v>
@@ -4009,10 +4030,10 @@
         <v>12</v>
       </c>
       <c r="B155" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C155" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D155">
         <v>948</v>
@@ -4032,10 +4053,10 @@
         <v>12</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C156" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D156">
         <v>72</v>
@@ -4055,10 +4076,10 @@
         <v>12</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D157">
         <v>7</v>
@@ -4078,10 +4099,10 @@
         <v>12</v>
       </c>
       <c r="B158" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D158">
         <v>268</v>
@@ -4101,10 +4122,10 @@
         <v>12</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D159">
         <v>350</v>
@@ -4124,10 +4145,10 @@
         <v>12</v>
       </c>
       <c r="B160" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D160">
         <v>450</v>
@@ -4147,10 +4168,10 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D161">
         <v>34</v>
@@ -4170,10 +4191,10 @@
         <v>12</v>
       </c>
       <c r="B162" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D162">
         <v>12</v>
@@ -4193,10 +4214,10 @@
         <v>12</v>
       </c>
       <c r="B163" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C163" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D163">
         <v>466</v>
@@ -4216,10 +4237,10 @@
         <v>12</v>
       </c>
       <c r="B164" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C164" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D164">
         <v>753</v>
@@ -4239,10 +4260,10 @@
         <v>12</v>
       </c>
       <c r="B165" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C165" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D165">
         <v>1377</v>
@@ -4262,10 +4283,10 @@
         <v>12</v>
       </c>
       <c r="B166" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C166" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D166">
         <v>115</v>
@@ -4285,10 +4306,10 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D167">
         <v>10</v>
@@ -4308,10 +4329,10 @@
         <v>12</v>
       </c>
       <c r="B168" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D168">
         <v>344</v>
@@ -4331,10 +4352,10 @@
         <v>12</v>
       </c>
       <c r="B169" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D169">
         <v>504</v>
@@ -4354,10 +4375,10 @@
         <v>12</v>
       </c>
       <c r="B170" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D170">
         <v>809</v>
@@ -4377,10 +4398,10 @@
         <v>12</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C171" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D171">
         <v>68</v>
@@ -4400,10 +4421,10 @@
         <v>12</v>
       </c>
       <c r="B172" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C172" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D172">
         <v>11</v>
@@ -4423,10 +4444,10 @@
         <v>12</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C173" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D173">
         <v>406</v>
@@ -4446,10 +4467,10 @@
         <v>12</v>
       </c>
       <c r="B174" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D174">
         <v>682</v>
@@ -4469,10 +4490,10 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C175" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D175">
         <v>1202</v>
@@ -4492,10 +4513,10 @@
         <v>12</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C176" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D176">
         <v>86</v>
@@ -4515,10 +4536,10 @@
         <v>12</v>
       </c>
       <c r="B177" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C177" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D177">
         <v>5</v>
@@ -4538,10 +4559,10 @@
         <v>12</v>
       </c>
       <c r="B178" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D178">
         <v>243</v>
@@ -4561,10 +4582,10 @@
         <v>12</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C179" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D179">
         <v>387</v>
@@ -4584,10 +4605,10 @@
         <v>12</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C180" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D180">
         <v>676</v>
@@ -4607,10 +4628,10 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C181" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D181">
         <v>46</v>
@@ -4630,10 +4651,10 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C182" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D182">
         <v>10</v>
@@ -4653,10 +4674,10 @@
         <v>13</v>
       </c>
       <c r="B183" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C183" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D183">
         <v>327</v>
@@ -4676,10 +4697,10 @@
         <v>13</v>
       </c>
       <c r="B184" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C184" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D184">
         <v>513</v>
@@ -4699,10 +4720,10 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C185" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D185">
         <v>924</v>
@@ -4722,10 +4743,10 @@
         <v>13</v>
       </c>
       <c r="B186" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C186" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D186">
         <v>72</v>
@@ -4745,10 +4766,10 @@
         <v>13</v>
       </c>
       <c r="B187" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C187" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D187">
         <v>7</v>
@@ -4768,10 +4789,10 @@
         <v>13</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D188">
         <v>265</v>
@@ -4791,10 +4812,10 @@
         <v>13</v>
       </c>
       <c r="B189" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C189" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D189">
         <v>347</v>
@@ -4814,10 +4835,10 @@
         <v>13</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C190" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D190">
         <v>456</v>
@@ -4837,10 +4858,10 @@
         <v>13</v>
       </c>
       <c r="B191" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C191" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D191">
         <v>35</v>
@@ -4860,10 +4881,10 @@
         <v>13</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C192" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D192">
         <v>12</v>
@@ -4883,10 +4904,10 @@
         <v>13</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C193" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D193">
         <v>463</v>
@@ -4906,10 +4927,10 @@
         <v>13</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C194" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D194">
         <v>751</v>
@@ -4929,10 +4950,10 @@
         <v>13</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C195" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D195">
         <v>1377</v>
@@ -4952,10 +4973,10 @@
         <v>13</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C196" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D196">
         <v>116</v>
@@ -4975,10 +4996,10 @@
         <v>13</v>
       </c>
       <c r="B197" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C197" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D197">
         <v>9</v>
@@ -4998,10 +5019,10 @@
         <v>13</v>
       </c>
       <c r="B198" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C198" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D198">
         <v>344</v>
@@ -5021,10 +5042,10 @@
         <v>13</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D199">
         <v>503</v>
@@ -5044,10 +5065,10 @@
         <v>13</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D200">
         <v>821</v>
@@ -5067,10 +5088,10 @@
         <v>13</v>
       </c>
       <c r="B201" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C201" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D201">
         <v>72</v>
@@ -5090,10 +5111,10 @@
         <v>13</v>
       </c>
       <c r="B202" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C202" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D202">
         <v>11</v>
@@ -5113,10 +5134,10 @@
         <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D203">
         <v>392</v>
@@ -5136,10 +5157,10 @@
         <v>13</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C204" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D204">
         <v>672</v>
@@ -5159,10 +5180,10 @@
         <v>13</v>
       </c>
       <c r="B205" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C205" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D205">
         <v>1197</v>
@@ -5182,10 +5203,10 @@
         <v>13</v>
       </c>
       <c r="B206" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C206" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D206">
         <v>85</v>
@@ -5205,10 +5226,10 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C207" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D207">
         <v>5</v>
@@ -5228,10 +5249,10 @@
         <v>13</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D208">
         <v>247</v>
@@ -5251,10 +5272,10 @@
         <v>13</v>
       </c>
       <c r="B209" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D209">
         <v>387</v>
@@ -5274,10 +5295,10 @@
         <v>13</v>
       </c>
       <c r="B210" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D210">
         <v>672</v>
@@ -5297,10 +5318,10 @@
         <v>13</v>
       </c>
       <c r="B211" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C211" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D211">
         <v>46</v>
@@ -5320,10 +5341,10 @@
         <v>14</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C212" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D212">
         <v>8</v>
@@ -5343,10 +5364,10 @@
         <v>14</v>
       </c>
       <c r="B213" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C213" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D213">
         <v>316</v>
@@ -5366,10 +5387,10 @@
         <v>14</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C214" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D214">
         <v>486</v>
@@ -5389,10 +5410,10 @@
         <v>14</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C215" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D215">
         <v>882</v>
@@ -5412,10 +5433,10 @@
         <v>14</v>
       </c>
       <c r="B216" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C216" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D216">
         <v>68</v>
@@ -5435,10 +5456,10 @@
         <v>14</v>
       </c>
       <c r="B217" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C217" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D217">
         <v>8</v>
@@ -5458,10 +5479,10 @@
         <v>14</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C218" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D218">
         <v>260</v>
@@ -5481,10 +5502,10 @@
         <v>14</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C219" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D219">
         <v>348</v>
@@ -5504,10 +5525,10 @@
         <v>14</v>
       </c>
       <c r="B220" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C220" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D220">
         <v>439</v>
@@ -5527,10 +5548,10 @@
         <v>14</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C221" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D221">
         <v>35</v>
@@ -5550,10 +5571,10 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C222" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D222">
         <v>12</v>
@@ -5573,10 +5594,10 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D223">
         <v>464</v>
@@ -5596,10 +5617,10 @@
         <v>14</v>
       </c>
       <c r="B224" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C224" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D224">
         <v>765</v>
@@ -5619,10 +5640,10 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C225" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D225">
         <v>1397</v>
@@ -5642,10 +5663,10 @@
         <v>14</v>
       </c>
       <c r="B226" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C226" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D226">
         <v>120</v>
@@ -5665,10 +5686,10 @@
         <v>14</v>
       </c>
       <c r="B227" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C227" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D227">
         <v>11</v>
@@ -5688,10 +5709,10 @@
         <v>14</v>
       </c>
       <c r="B228" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C228" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D228">
         <v>346</v>
@@ -5711,10 +5732,10 @@
         <v>14</v>
       </c>
       <c r="B229" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D229">
         <v>518</v>
@@ -5734,10 +5755,10 @@
         <v>14</v>
       </c>
       <c r="B230" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C230" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D230">
         <v>833</v>
@@ -5757,10 +5778,10 @@
         <v>14</v>
       </c>
       <c r="B231" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C231" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D231">
         <v>67</v>
@@ -5780,10 +5801,10 @@
         <v>14</v>
       </c>
       <c r="B232" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C232" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D232">
         <v>11</v>
@@ -5803,10 +5824,10 @@
         <v>14</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C233" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D233">
         <v>382</v>
@@ -5826,10 +5847,10 @@
         <v>14</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C234" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D234">
         <v>667</v>
@@ -5849,10 +5870,10 @@
         <v>14</v>
       </c>
       <c r="B235" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C235" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D235">
         <v>1159</v>
@@ -5872,10 +5893,10 @@
         <v>14</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C236" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D236">
         <v>86</v>
@@ -5895,10 +5916,10 @@
         <v>14</v>
       </c>
       <c r="B237" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C237" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D237">
         <v>5</v>
@@ -5918,10 +5939,10 @@
         <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C238" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D238">
         <v>246</v>
@@ -5941,10 +5962,10 @@
         <v>14</v>
       </c>
       <c r="B239" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C239" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D239">
         <v>382</v>
@@ -5964,10 +5985,10 @@
         <v>14</v>
       </c>
       <c r="B240" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C240" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D240">
         <v>664</v>
@@ -5987,10 +6008,10 @@
         <v>14</v>
       </c>
       <c r="B241" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C241" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D241">
         <v>45</v>
@@ -6010,10 +6031,10 @@
         <v>15</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C242" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D242">
         <v>8</v>
@@ -6033,10 +6054,10 @@
         <v>15</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C243" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D243">
         <v>310</v>
@@ -6056,10 +6077,10 @@
         <v>15</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C244" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D244">
         <v>486</v>
@@ -6079,10 +6100,10 @@
         <v>15</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C245" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D245">
         <v>886</v>
@@ -6102,10 +6123,10 @@
         <v>15</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C246" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D246">
         <v>66</v>
@@ -6125,10 +6146,10 @@
         <v>15</v>
       </c>
       <c r="B247" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C247" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D247">
         <v>9</v>
@@ -6148,10 +6169,10 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C248" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D248">
         <v>258</v>
@@ -6171,10 +6192,10 @@
         <v>15</v>
       </c>
       <c r="B249" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C249" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D249">
         <v>347</v>
@@ -6194,10 +6215,10 @@
         <v>15</v>
       </c>
       <c r="B250" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C250" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D250">
         <v>445</v>
@@ -6217,10 +6238,10 @@
         <v>15</v>
       </c>
       <c r="B251" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C251" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D251">
         <v>33</v>
@@ -6240,10 +6261,10 @@
         <v>15</v>
       </c>
       <c r="B252" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C252" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D252">
         <v>12</v>
@@ -6263,10 +6284,10 @@
         <v>15</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C253" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D253">
         <v>463</v>
@@ -6286,10 +6307,10 @@
         <v>15</v>
       </c>
       <c r="B254" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C254" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D254">
         <v>765</v>
@@ -6309,10 +6330,10 @@
         <v>15</v>
       </c>
       <c r="B255" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C255" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D255">
         <v>1381</v>
@@ -6332,10 +6353,10 @@
         <v>15</v>
       </c>
       <c r="B256" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C256" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D256">
         <v>117</v>
@@ -6355,10 +6376,10 @@
         <v>15</v>
       </c>
       <c r="B257" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C257" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D257">
         <v>10</v>
@@ -6378,10 +6399,10 @@
         <v>15</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C258" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D258">
         <v>348</v>
@@ -6401,10 +6422,10 @@
         <v>15</v>
       </c>
       <c r="B259" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D259">
         <v>515</v>
@@ -6424,10 +6445,10 @@
         <v>15</v>
       </c>
       <c r="B260" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C260" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D260">
         <v>816</v>
@@ -6447,10 +6468,10 @@
         <v>15</v>
       </c>
       <c r="B261" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C261" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D261">
         <v>67</v>
@@ -6470,10 +6491,10 @@
         <v>15</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C262" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D262">
         <v>11</v>
@@ -6493,10 +6514,10 @@
         <v>15</v>
       </c>
       <c r="B263" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C263" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D263">
         <v>372</v>
@@ -6516,10 +6537,10 @@
         <v>15</v>
       </c>
       <c r="B264" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C264" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D264">
         <v>659</v>
@@ -6539,10 +6560,10 @@
         <v>15</v>
       </c>
       <c r="B265" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C265" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D265">
         <v>1147</v>
@@ -6562,10 +6583,10 @@
         <v>15</v>
       </c>
       <c r="B266" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C266" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D266">
         <v>84</v>
@@ -6585,10 +6606,10 @@
         <v>15</v>
       </c>
       <c r="B267" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C267" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D267">
         <v>5</v>
@@ -6608,10 +6629,10 @@
         <v>15</v>
       </c>
       <c r="B268" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C268" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D268">
         <v>238</v>
@@ -6631,10 +6652,10 @@
         <v>15</v>
       </c>
       <c r="B269" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C269" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D269">
         <v>383</v>
@@ -6654,10 +6675,10 @@
         <v>15</v>
       </c>
       <c r="B270" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C270" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D270">
         <v>665</v>
@@ -6677,10 +6698,10 @@
         <v>15</v>
       </c>
       <c r="B271" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C271" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D271">
         <v>44</v>
@@ -6693,6 +6714,4836 @@
       </c>
       <c r="G271" s="2">
         <v>44508</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" t="s">
+        <v>16</v>
+      </c>
+      <c r="B272" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" t="s">
+        <v>29</v>
+      </c>
+      <c r="D272">
+        <v>7</v>
+      </c>
+      <c r="E272">
+        <v>12</v>
+      </c>
+      <c r="F272">
+        <v>58.3</v>
+      </c>
+      <c r="G272" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>30</v>
+      </c>
+      <c r="D273">
+        <v>308</v>
+      </c>
+      <c r="E273">
+        <v>498</v>
+      </c>
+      <c r="F273">
+        <v>61.8</v>
+      </c>
+      <c r="G273" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" t="s">
+        <v>16</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274">
+        <v>486</v>
+      </c>
+      <c r="E274">
+        <v>865</v>
+      </c>
+      <c r="F274">
+        <v>56.2</v>
+      </c>
+      <c r="G274" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" t="s">
+        <v>16</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275">
+        <v>876</v>
+      </c>
+      <c r="E275">
+        <v>1825</v>
+      </c>
+      <c r="F275">
+        <v>48</v>
+      </c>
+      <c r="G275" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" t="s">
+        <v>16</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>33</v>
+      </c>
+      <c r="D276">
+        <v>66</v>
+      </c>
+      <c r="E276">
+        <v>141</v>
+      </c>
+      <c r="F276">
+        <v>46.8</v>
+      </c>
+      <c r="G276" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" t="s">
+        <v>16</v>
+      </c>
+      <c r="B277" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" t="s">
+        <v>29</v>
+      </c>
+      <c r="D277">
+        <v>9</v>
+      </c>
+      <c r="E277">
+        <v>12</v>
+      </c>
+      <c r="F277">
+        <v>75</v>
+      </c>
+      <c r="G277" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" t="s">
+        <v>30</v>
+      </c>
+      <c r="D278">
+        <v>261</v>
+      </c>
+      <c r="E278">
+        <v>498</v>
+      </c>
+      <c r="F278">
+        <v>52.4</v>
+      </c>
+      <c r="G278" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279" t="s">
+        <v>24</v>
+      </c>
+      <c r="C279" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279">
+        <v>340</v>
+      </c>
+      <c r="E279">
+        <v>865</v>
+      </c>
+      <c r="F279">
+        <v>39.3</v>
+      </c>
+      <c r="G279" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" t="s">
+        <v>16</v>
+      </c>
+      <c r="B280" t="s">
+        <v>24</v>
+      </c>
+      <c r="C280" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280">
+        <v>448</v>
+      </c>
+      <c r="E280">
+        <v>1825</v>
+      </c>
+      <c r="F280">
+        <v>24.5</v>
+      </c>
+      <c r="G280" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B281" t="s">
+        <v>24</v>
+      </c>
+      <c r="C281" t="s">
+        <v>33</v>
+      </c>
+      <c r="D281">
+        <v>34</v>
+      </c>
+      <c r="E281">
+        <v>141</v>
+      </c>
+      <c r="F281">
+        <v>24.1</v>
+      </c>
+      <c r="G281" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" t="s">
+        <v>16</v>
+      </c>
+      <c r="B282" t="s">
+        <v>25</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>12</v>
+      </c>
+      <c r="E282">
+        <v>12</v>
+      </c>
+      <c r="F282">
+        <v>100</v>
+      </c>
+      <c r="G282" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" t="s">
+        <v>16</v>
+      </c>
+      <c r="B283" t="s">
+        <v>25</v>
+      </c>
+      <c r="C283" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283">
+        <v>466</v>
+      </c>
+      <c r="E283">
+        <v>498</v>
+      </c>
+      <c r="F283">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G283" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284" t="s">
+        <v>31</v>
+      </c>
+      <c r="D284">
+        <v>757</v>
+      </c>
+      <c r="E284">
+        <v>865</v>
+      </c>
+      <c r="F284">
+        <v>87.5</v>
+      </c>
+      <c r="G284" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" t="s">
+        <v>16</v>
+      </c>
+      <c r="B285" t="s">
+        <v>25</v>
+      </c>
+      <c r="C285" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285">
+        <v>1377</v>
+      </c>
+      <c r="E285">
+        <v>1825</v>
+      </c>
+      <c r="F285">
+        <v>75.5</v>
+      </c>
+      <c r="G285" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" t="s">
+        <v>33</v>
+      </c>
+      <c r="D286">
+        <v>117</v>
+      </c>
+      <c r="E286">
+        <v>141</v>
+      </c>
+      <c r="F286">
+        <v>83</v>
+      </c>
+      <c r="G286" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" t="s">
+        <v>16</v>
+      </c>
+      <c r="B287" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" t="s">
+        <v>29</v>
+      </c>
+      <c r="D287">
+        <v>10</v>
+      </c>
+      <c r="E287">
+        <v>12</v>
+      </c>
+      <c r="F287">
+        <v>83.3</v>
+      </c>
+      <c r="G287" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" t="s">
+        <v>16</v>
+      </c>
+      <c r="B288" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" t="s">
+        <v>30</v>
+      </c>
+      <c r="D288">
+        <v>348</v>
+      </c>
+      <c r="E288">
+        <v>498</v>
+      </c>
+      <c r="F288">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="G288" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B289" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289" t="s">
+        <v>31</v>
+      </c>
+      <c r="D289">
+        <v>502</v>
+      </c>
+      <c r="E289">
+        <v>865</v>
+      </c>
+      <c r="F289">
+        <v>58</v>
+      </c>
+      <c r="G289" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
+        <v>16</v>
+      </c>
+      <c r="B290" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" t="s">
+        <v>32</v>
+      </c>
+      <c r="D290">
+        <v>806</v>
+      </c>
+      <c r="E290">
+        <v>1825</v>
+      </c>
+      <c r="F290">
+        <v>44.2</v>
+      </c>
+      <c r="G290" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" t="s">
+        <v>16</v>
+      </c>
+      <c r="B291" t="s">
+        <v>26</v>
+      </c>
+      <c r="C291" t="s">
+        <v>33</v>
+      </c>
+      <c r="D291">
+        <v>66</v>
+      </c>
+      <c r="E291">
+        <v>141</v>
+      </c>
+      <c r="F291">
+        <v>46.8</v>
+      </c>
+      <c r="G291" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" t="s">
+        <v>16</v>
+      </c>
+      <c r="B292" t="s">
+        <v>27</v>
+      </c>
+      <c r="C292" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292">
+        <v>11</v>
+      </c>
+      <c r="E292">
+        <v>12</v>
+      </c>
+      <c r="F292">
+        <v>91.7</v>
+      </c>
+      <c r="G292" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" t="s">
+        <v>16</v>
+      </c>
+      <c r="B293" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" t="s">
+        <v>30</v>
+      </c>
+      <c r="D293">
+        <v>372</v>
+      </c>
+      <c r="E293">
+        <v>498</v>
+      </c>
+      <c r="F293">
+        <v>74.7</v>
+      </c>
+      <c r="G293" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" t="s">
+        <v>16</v>
+      </c>
+      <c r="B294" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" t="s">
+        <v>31</v>
+      </c>
+      <c r="D294">
+        <v>645</v>
+      </c>
+      <c r="E294">
+        <v>865</v>
+      </c>
+      <c r="F294">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="G294" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B295" t="s">
+        <v>27</v>
+      </c>
+      <c r="C295" t="s">
+        <v>32</v>
+      </c>
+      <c r="D295">
+        <v>1132</v>
+      </c>
+      <c r="E295">
+        <v>1825</v>
+      </c>
+      <c r="F295">
+        <v>62</v>
+      </c>
+      <c r="G295" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B296" t="s">
+        <v>27</v>
+      </c>
+      <c r="C296" t="s">
+        <v>33</v>
+      </c>
+      <c r="D296">
+        <v>85</v>
+      </c>
+      <c r="E296">
+        <v>141</v>
+      </c>
+      <c r="F296">
+        <v>60.3</v>
+      </c>
+      <c r="G296" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" t="s">
+        <v>16</v>
+      </c>
+      <c r="B297" t="s">
+        <v>28</v>
+      </c>
+      <c r="C297" t="s">
+        <v>29</v>
+      </c>
+      <c r="D297">
+        <v>5</v>
+      </c>
+      <c r="E297">
+        <v>12</v>
+      </c>
+      <c r="F297">
+        <v>41.7</v>
+      </c>
+      <c r="G297" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" t="s">
+        <v>28</v>
+      </c>
+      <c r="C298" t="s">
+        <v>30</v>
+      </c>
+      <c r="D298">
+        <v>238</v>
+      </c>
+      <c r="E298">
+        <v>498</v>
+      </c>
+      <c r="F298">
+        <v>47.8</v>
+      </c>
+      <c r="G298" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" t="s">
+        <v>16</v>
+      </c>
+      <c r="B299" t="s">
+        <v>28</v>
+      </c>
+      <c r="C299" t="s">
+        <v>31</v>
+      </c>
+      <c r="D299">
+        <v>375</v>
+      </c>
+      <c r="E299">
+        <v>865</v>
+      </c>
+      <c r="F299">
+        <v>43.4</v>
+      </c>
+      <c r="G299" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" t="s">
+        <v>16</v>
+      </c>
+      <c r="B300" t="s">
+        <v>28</v>
+      </c>
+      <c r="C300" t="s">
+        <v>32</v>
+      </c>
+      <c r="D300">
+        <v>652</v>
+      </c>
+      <c r="E300">
+        <v>1825</v>
+      </c>
+      <c r="F300">
+        <v>35.7</v>
+      </c>
+      <c r="G300" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301" t="s">
+        <v>28</v>
+      </c>
+      <c r="C301" t="s">
+        <v>33</v>
+      </c>
+      <c r="D301">
+        <v>45</v>
+      </c>
+      <c r="E301">
+        <v>141</v>
+      </c>
+      <c r="F301">
+        <v>31.9</v>
+      </c>
+      <c r="G301" s="2">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" t="s">
+        <v>17</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="s">
+        <v>29</v>
+      </c>
+      <c r="D302">
+        <v>8</v>
+      </c>
+      <c r="E302">
+        <v>12</v>
+      </c>
+      <c r="F302">
+        <v>66.7</v>
+      </c>
+      <c r="G302" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" t="s">
+        <v>17</v>
+      </c>
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" t="s">
+        <v>30</v>
+      </c>
+      <c r="D303">
+        <v>321</v>
+      </c>
+      <c r="E303">
+        <v>498</v>
+      </c>
+      <c r="F303">
+        <v>64.5</v>
+      </c>
+      <c r="G303" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" t="s">
+        <v>17</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304" t="s">
+        <v>31</v>
+      </c>
+      <c r="D304">
+        <v>518</v>
+      </c>
+      <c r="E304">
+        <v>865</v>
+      </c>
+      <c r="F304">
+        <v>59.9</v>
+      </c>
+      <c r="G304" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" t="s">
+        <v>32</v>
+      </c>
+      <c r="D305">
+        <v>922</v>
+      </c>
+      <c r="E305">
+        <v>1825</v>
+      </c>
+      <c r="F305">
+        <v>50.5</v>
+      </c>
+      <c r="G305" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" t="s">
+        <v>17</v>
+      </c>
+      <c r="B306" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" t="s">
+        <v>33</v>
+      </c>
+      <c r="D306">
+        <v>66</v>
+      </c>
+      <c r="E306">
+        <v>141</v>
+      </c>
+      <c r="F306">
+        <v>46.8</v>
+      </c>
+      <c r="G306" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" t="s">
+        <v>17</v>
+      </c>
+      <c r="B307" t="s">
+        <v>24</v>
+      </c>
+      <c r="C307" t="s">
+        <v>29</v>
+      </c>
+      <c r="D307">
+        <v>9</v>
+      </c>
+      <c r="E307">
+        <v>12</v>
+      </c>
+      <c r="F307">
+        <v>75</v>
+      </c>
+      <c r="G307" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" t="s">
+        <v>17</v>
+      </c>
+      <c r="B308" t="s">
+        <v>24</v>
+      </c>
+      <c r="C308" t="s">
+        <v>30</v>
+      </c>
+      <c r="D308">
+        <v>262</v>
+      </c>
+      <c r="E308">
+        <v>498</v>
+      </c>
+      <c r="F308">
+        <v>52.6</v>
+      </c>
+      <c r="G308" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" t="s">
+        <v>17</v>
+      </c>
+      <c r="B309" t="s">
+        <v>24</v>
+      </c>
+      <c r="C309" t="s">
+        <v>31</v>
+      </c>
+      <c r="D309">
+        <v>341</v>
+      </c>
+      <c r="E309">
+        <v>865</v>
+      </c>
+      <c r="F309">
+        <v>39.4</v>
+      </c>
+      <c r="G309" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" t="s">
+        <v>17</v>
+      </c>
+      <c r="B310" t="s">
+        <v>24</v>
+      </c>
+      <c r="C310" t="s">
+        <v>32</v>
+      </c>
+      <c r="D310">
+        <v>450</v>
+      </c>
+      <c r="E310">
+        <v>1825</v>
+      </c>
+      <c r="F310">
+        <v>24.7</v>
+      </c>
+      <c r="G310" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311" t="s">
+        <v>24</v>
+      </c>
+      <c r="C311" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311">
+        <v>35</v>
+      </c>
+      <c r="E311">
+        <v>141</v>
+      </c>
+      <c r="F311">
+        <v>24.8</v>
+      </c>
+      <c r="G311" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" t="s">
+        <v>17</v>
+      </c>
+      <c r="B312" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312" t="s">
+        <v>29</v>
+      </c>
+      <c r="D312">
+        <v>12</v>
+      </c>
+      <c r="E312">
+        <v>12</v>
+      </c>
+      <c r="F312">
+        <v>100</v>
+      </c>
+      <c r="G312" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B313" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313" t="s">
+        <v>30</v>
+      </c>
+      <c r="D313">
+        <v>464</v>
+      </c>
+      <c r="E313">
+        <v>498</v>
+      </c>
+      <c r="F313">
+        <v>93.2</v>
+      </c>
+      <c r="G313" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314" t="s">
+        <v>31</v>
+      </c>
+      <c r="D314">
+        <v>756</v>
+      </c>
+      <c r="E314">
+        <v>865</v>
+      </c>
+      <c r="F314">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G314" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" t="s">
+        <v>17</v>
+      </c>
+      <c r="B315" t="s">
+        <v>25</v>
+      </c>
+      <c r="C315" t="s">
+        <v>32</v>
+      </c>
+      <c r="D315">
+        <v>1379</v>
+      </c>
+      <c r="E315">
+        <v>1825</v>
+      </c>
+      <c r="F315">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G315" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" t="s">
+        <v>17</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316" t="s">
+        <v>33</v>
+      </c>
+      <c r="D316">
+        <v>113</v>
+      </c>
+      <c r="E316">
+        <v>141</v>
+      </c>
+      <c r="F316">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="G316" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B317" t="s">
+        <v>26</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317">
+        <v>10</v>
+      </c>
+      <c r="E317">
+        <v>12</v>
+      </c>
+      <c r="F317">
+        <v>83.3</v>
+      </c>
+      <c r="G317" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B318" t="s">
+        <v>26</v>
+      </c>
+      <c r="C318" t="s">
+        <v>30</v>
+      </c>
+      <c r="D318">
+        <v>339</v>
+      </c>
+      <c r="E318">
+        <v>498</v>
+      </c>
+      <c r="F318">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="G318" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B319" t="s">
+        <v>26</v>
+      </c>
+      <c r="C319" t="s">
+        <v>31</v>
+      </c>
+      <c r="D319">
+        <v>488</v>
+      </c>
+      <c r="E319">
+        <v>865</v>
+      </c>
+      <c r="F319">
+        <v>56.4</v>
+      </c>
+      <c r="G319" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" t="s">
+        <v>26</v>
+      </c>
+      <c r="C320" t="s">
+        <v>32</v>
+      </c>
+      <c r="D320">
+        <v>807</v>
+      </c>
+      <c r="E320">
+        <v>1825</v>
+      </c>
+      <c r="F320">
+        <v>44.2</v>
+      </c>
+      <c r="G320" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B321" t="s">
+        <v>26</v>
+      </c>
+      <c r="C321" t="s">
+        <v>33</v>
+      </c>
+      <c r="D321">
+        <v>66</v>
+      </c>
+      <c r="E321">
+        <v>141</v>
+      </c>
+      <c r="F321">
+        <v>46.8</v>
+      </c>
+      <c r="G321" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B322" t="s">
+        <v>27</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322">
+        <v>11</v>
+      </c>
+      <c r="E322">
+        <v>12</v>
+      </c>
+      <c r="F322">
+        <v>91.7</v>
+      </c>
+      <c r="G322" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B323" t="s">
+        <v>27</v>
+      </c>
+      <c r="C323" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323">
+        <v>376</v>
+      </c>
+      <c r="E323">
+        <v>498</v>
+      </c>
+      <c r="F323">
+        <v>75.5</v>
+      </c>
+      <c r="G323" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B324" t="s">
+        <v>27</v>
+      </c>
+      <c r="C324" t="s">
+        <v>31</v>
+      </c>
+      <c r="D324">
+        <v>653</v>
+      </c>
+      <c r="E324">
+        <v>865</v>
+      </c>
+      <c r="F324">
+        <v>75.5</v>
+      </c>
+      <c r="G324" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B325" t="s">
+        <v>27</v>
+      </c>
+      <c r="C325" t="s">
+        <v>32</v>
+      </c>
+      <c r="D325">
+        <v>1154</v>
+      </c>
+      <c r="E325">
+        <v>1825</v>
+      </c>
+      <c r="F325">
+        <v>63.2</v>
+      </c>
+      <c r="G325" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" t="s">
+        <v>17</v>
+      </c>
+      <c r="B326" t="s">
+        <v>27</v>
+      </c>
+      <c r="C326" t="s">
+        <v>33</v>
+      </c>
+      <c r="D326">
+        <v>85</v>
+      </c>
+      <c r="E326">
+        <v>141</v>
+      </c>
+      <c r="F326">
+        <v>60.3</v>
+      </c>
+      <c r="G326" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" t="s">
+        <v>17</v>
+      </c>
+      <c r="B327" t="s">
+        <v>28</v>
+      </c>
+      <c r="C327" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327">
+        <v>12</v>
+      </c>
+      <c r="F327">
+        <v>41.7</v>
+      </c>
+      <c r="G327" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" t="s">
+        <v>28</v>
+      </c>
+      <c r="C328" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328">
+        <v>237</v>
+      </c>
+      <c r="E328">
+        <v>498</v>
+      </c>
+      <c r="F328">
+        <v>47.6</v>
+      </c>
+      <c r="G328" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" t="s">
+        <v>17</v>
+      </c>
+      <c r="B329" t="s">
+        <v>28</v>
+      </c>
+      <c r="C329" t="s">
+        <v>31</v>
+      </c>
+      <c r="D329">
+        <v>371</v>
+      </c>
+      <c r="E329">
+        <v>865</v>
+      </c>
+      <c r="F329">
+        <v>42.9</v>
+      </c>
+      <c r="G329" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B330" t="s">
+        <v>28</v>
+      </c>
+      <c r="C330" t="s">
+        <v>32</v>
+      </c>
+      <c r="D330">
+        <v>656</v>
+      </c>
+      <c r="E330">
+        <v>1825</v>
+      </c>
+      <c r="F330">
+        <v>35.9</v>
+      </c>
+      <c r="G330" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B331" t="s">
+        <v>28</v>
+      </c>
+      <c r="C331" t="s">
+        <v>33</v>
+      </c>
+      <c r="D331">
+        <v>45</v>
+      </c>
+      <c r="E331">
+        <v>141</v>
+      </c>
+      <c r="F331">
+        <v>31.9</v>
+      </c>
+      <c r="G331" s="2">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332">
+        <v>8</v>
+      </c>
+      <c r="E332">
+        <v>12</v>
+      </c>
+      <c r="F332">
+        <v>66.7</v>
+      </c>
+      <c r="G332" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" t="s">
+        <v>23</v>
+      </c>
+      <c r="C333" t="s">
+        <v>30</v>
+      </c>
+      <c r="D333">
+        <v>320</v>
+      </c>
+      <c r="E333">
+        <v>498</v>
+      </c>
+      <c r="F333">
+        <v>64.3</v>
+      </c>
+      <c r="G333" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" t="s">
+        <v>31</v>
+      </c>
+      <c r="D334">
+        <v>507</v>
+      </c>
+      <c r="E334">
+        <v>865</v>
+      </c>
+      <c r="F334">
+        <v>58.6</v>
+      </c>
+      <c r="G334" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" t="s">
+        <v>18</v>
+      </c>
+      <c r="B335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" t="s">
+        <v>32</v>
+      </c>
+      <c r="D335">
+        <v>914</v>
+      </c>
+      <c r="E335">
+        <v>1825</v>
+      </c>
+      <c r="F335">
+        <v>50.1</v>
+      </c>
+      <c r="G335" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336" t="s">
+        <v>33</v>
+      </c>
+      <c r="D336">
+        <v>66</v>
+      </c>
+      <c r="E336">
+        <v>141</v>
+      </c>
+      <c r="F336">
+        <v>46.8</v>
+      </c>
+      <c r="G336" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337" t="s">
+        <v>24</v>
+      </c>
+      <c r="C337" t="s">
+        <v>29</v>
+      </c>
+      <c r="D337">
+        <v>9</v>
+      </c>
+      <c r="E337">
+        <v>12</v>
+      </c>
+      <c r="F337">
+        <v>75</v>
+      </c>
+      <c r="G337" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" t="s">
+        <v>18</v>
+      </c>
+      <c r="B338" t="s">
+        <v>24</v>
+      </c>
+      <c r="C338" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338">
+        <v>264</v>
+      </c>
+      <c r="E338">
+        <v>498</v>
+      </c>
+      <c r="F338">
+        <v>53</v>
+      </c>
+      <c r="G338" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" t="s">
+        <v>31</v>
+      </c>
+      <c r="D339">
+        <v>340</v>
+      </c>
+      <c r="E339">
+        <v>865</v>
+      </c>
+      <c r="F339">
+        <v>39.3</v>
+      </c>
+      <c r="G339" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" t="s">
+        <v>24</v>
+      </c>
+      <c r="C340" t="s">
+        <v>32</v>
+      </c>
+      <c r="D340">
+        <v>450</v>
+      </c>
+      <c r="E340">
+        <v>1825</v>
+      </c>
+      <c r="F340">
+        <v>24.7</v>
+      </c>
+      <c r="G340" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341" t="s">
+        <v>24</v>
+      </c>
+      <c r="C341" t="s">
+        <v>33</v>
+      </c>
+      <c r="D341">
+        <v>35</v>
+      </c>
+      <c r="E341">
+        <v>141</v>
+      </c>
+      <c r="F341">
+        <v>24.8</v>
+      </c>
+      <c r="G341" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" t="s">
+        <v>25</v>
+      </c>
+      <c r="C342" t="s">
+        <v>29</v>
+      </c>
+      <c r="D342">
+        <v>12</v>
+      </c>
+      <c r="E342">
+        <v>12</v>
+      </c>
+      <c r="F342">
+        <v>100</v>
+      </c>
+      <c r="G342" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" t="s">
+        <v>18</v>
+      </c>
+      <c r="B343" t="s">
+        <v>25</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343">
+        <v>466</v>
+      </c>
+      <c r="E343">
+        <v>498</v>
+      </c>
+      <c r="F343">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G343" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344" t="s">
+        <v>31</v>
+      </c>
+      <c r="D344">
+        <v>758</v>
+      </c>
+      <c r="E344">
+        <v>865</v>
+      </c>
+      <c r="F344">
+        <v>87.59999999999999</v>
+      </c>
+      <c r="G344" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" t="s">
+        <v>25</v>
+      </c>
+      <c r="C345" t="s">
+        <v>32</v>
+      </c>
+      <c r="D345">
+        <v>1372</v>
+      </c>
+      <c r="E345">
+        <v>1825</v>
+      </c>
+      <c r="F345">
+        <v>75.2</v>
+      </c>
+      <c r="G345" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346" t="s">
+        <v>33</v>
+      </c>
+      <c r="D346">
+        <v>114</v>
+      </c>
+      <c r="E346">
+        <v>141</v>
+      </c>
+      <c r="F346">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="G346" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" t="s">
+        <v>18</v>
+      </c>
+      <c r="B347" t="s">
+        <v>26</v>
+      </c>
+      <c r="C347" t="s">
+        <v>29</v>
+      </c>
+      <c r="D347">
+        <v>10</v>
+      </c>
+      <c r="E347">
+        <v>12</v>
+      </c>
+      <c r="F347">
+        <v>83.3</v>
+      </c>
+      <c r="G347" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" t="s">
+        <v>26</v>
+      </c>
+      <c r="C348" t="s">
+        <v>30</v>
+      </c>
+      <c r="D348">
+        <v>336</v>
+      </c>
+      <c r="E348">
+        <v>498</v>
+      </c>
+      <c r="F348">
+        <v>67.5</v>
+      </c>
+      <c r="G348" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" t="s">
+        <v>26</v>
+      </c>
+      <c r="C349" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349">
+        <v>491</v>
+      </c>
+      <c r="E349">
+        <v>865</v>
+      </c>
+      <c r="F349">
+        <v>56.8</v>
+      </c>
+      <c r="G349" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" t="s">
+        <v>26</v>
+      </c>
+      <c r="C350" t="s">
+        <v>32</v>
+      </c>
+      <c r="D350">
+        <v>813</v>
+      </c>
+      <c r="E350">
+        <v>1825</v>
+      </c>
+      <c r="F350">
+        <v>44.5</v>
+      </c>
+      <c r="G350" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" t="s">
+        <v>26</v>
+      </c>
+      <c r="C351" t="s">
+        <v>33</v>
+      </c>
+      <c r="D351">
+        <v>65</v>
+      </c>
+      <c r="E351">
+        <v>141</v>
+      </c>
+      <c r="F351">
+        <v>46.1</v>
+      </c>
+      <c r="G351" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" t="s">
+        <v>29</v>
+      </c>
+      <c r="D352">
+        <v>11</v>
+      </c>
+      <c r="E352">
+        <v>12</v>
+      </c>
+      <c r="F352">
+        <v>91.7</v>
+      </c>
+      <c r="G352" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" t="s">
+        <v>27</v>
+      </c>
+      <c r="C353" t="s">
+        <v>30</v>
+      </c>
+      <c r="D353">
+        <v>375</v>
+      </c>
+      <c r="E353">
+        <v>498</v>
+      </c>
+      <c r="F353">
+        <v>75.3</v>
+      </c>
+      <c r="G353" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" t="s">
+        <v>27</v>
+      </c>
+      <c r="C354" t="s">
+        <v>31</v>
+      </c>
+      <c r="D354">
+        <v>649</v>
+      </c>
+      <c r="E354">
+        <v>865</v>
+      </c>
+      <c r="F354">
+        <v>75</v>
+      </c>
+      <c r="G354" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355">
+        <v>1148</v>
+      </c>
+      <c r="E355">
+        <v>1825</v>
+      </c>
+      <c r="F355">
+        <v>62.9</v>
+      </c>
+      <c r="G355" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356" t="s">
+        <v>27</v>
+      </c>
+      <c r="C356" t="s">
+        <v>33</v>
+      </c>
+      <c r="D356">
+        <v>85</v>
+      </c>
+      <c r="E356">
+        <v>141</v>
+      </c>
+      <c r="F356">
+        <v>60.3</v>
+      </c>
+      <c r="G356" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357" t="s">
+        <v>29</v>
+      </c>
+      <c r="D357">
+        <v>5</v>
+      </c>
+      <c r="E357">
+        <v>12</v>
+      </c>
+      <c r="F357">
+        <v>41.7</v>
+      </c>
+      <c r="G357" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358" t="s">
+        <v>30</v>
+      </c>
+      <c r="D358">
+        <v>238</v>
+      </c>
+      <c r="E358">
+        <v>498</v>
+      </c>
+      <c r="F358">
+        <v>47.8</v>
+      </c>
+      <c r="G358" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359" t="s">
+        <v>31</v>
+      </c>
+      <c r="D359">
+        <v>378</v>
+      </c>
+      <c r="E359">
+        <v>865</v>
+      </c>
+      <c r="F359">
+        <v>43.7</v>
+      </c>
+      <c r="G359" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360">
+        <v>652</v>
+      </c>
+      <c r="E360">
+        <v>1825</v>
+      </c>
+      <c r="F360">
+        <v>35.7</v>
+      </c>
+      <c r="G360" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" t="s">
+        <v>18</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361" t="s">
+        <v>33</v>
+      </c>
+      <c r="D361">
+        <v>44</v>
+      </c>
+      <c r="E361">
+        <v>141</v>
+      </c>
+      <c r="F361">
+        <v>31.2</v>
+      </c>
+      <c r="G361" s="2">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" t="s">
+        <v>19</v>
+      </c>
+      <c r="B362" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" t="s">
+        <v>29</v>
+      </c>
+      <c r="D362">
+        <v>8</v>
+      </c>
+      <c r="E362">
+        <v>12</v>
+      </c>
+      <c r="F362">
+        <v>66.7</v>
+      </c>
+      <c r="G362" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" t="s">
+        <v>19</v>
+      </c>
+      <c r="B363" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" t="s">
+        <v>30</v>
+      </c>
+      <c r="D363">
+        <v>315</v>
+      </c>
+      <c r="E363">
+        <v>498</v>
+      </c>
+      <c r="F363">
+        <v>63.3</v>
+      </c>
+      <c r="G363" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" t="s">
+        <v>19</v>
+      </c>
+      <c r="B364" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" t="s">
+        <v>31</v>
+      </c>
+      <c r="D364">
+        <v>495</v>
+      </c>
+      <c r="E364">
+        <v>865</v>
+      </c>
+      <c r="F364">
+        <v>57.2</v>
+      </c>
+      <c r="G364" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" t="s">
+        <v>19</v>
+      </c>
+      <c r="B365" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365">
+        <v>895</v>
+      </c>
+      <c r="E365">
+        <v>1825</v>
+      </c>
+      <c r="F365">
+        <v>49</v>
+      </c>
+      <c r="G365" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" t="s">
+        <v>33</v>
+      </c>
+      <c r="D366">
+        <v>66</v>
+      </c>
+      <c r="E366">
+        <v>141</v>
+      </c>
+      <c r="F366">
+        <v>46.8</v>
+      </c>
+      <c r="G366" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" t="s">
+        <v>19</v>
+      </c>
+      <c r="B367" t="s">
+        <v>24</v>
+      </c>
+      <c r="C367" t="s">
+        <v>29</v>
+      </c>
+      <c r="D367">
+        <v>9</v>
+      </c>
+      <c r="E367">
+        <v>12</v>
+      </c>
+      <c r="F367">
+        <v>75</v>
+      </c>
+      <c r="G367" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" t="s">
+        <v>19</v>
+      </c>
+      <c r="B368" t="s">
+        <v>24</v>
+      </c>
+      <c r="C368" t="s">
+        <v>30</v>
+      </c>
+      <c r="D368">
+        <v>264</v>
+      </c>
+      <c r="E368">
+        <v>498</v>
+      </c>
+      <c r="F368">
+        <v>53</v>
+      </c>
+      <c r="G368" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" t="s">
+        <v>19</v>
+      </c>
+      <c r="B369" t="s">
+        <v>24</v>
+      </c>
+      <c r="C369" t="s">
+        <v>31</v>
+      </c>
+      <c r="D369">
+        <v>338</v>
+      </c>
+      <c r="E369">
+        <v>865</v>
+      </c>
+      <c r="F369">
+        <v>39.1</v>
+      </c>
+      <c r="G369" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" t="s">
+        <v>19</v>
+      </c>
+      <c r="B370" t="s">
+        <v>24</v>
+      </c>
+      <c r="C370" t="s">
+        <v>32</v>
+      </c>
+      <c r="D370">
+        <v>442</v>
+      </c>
+      <c r="E370">
+        <v>1825</v>
+      </c>
+      <c r="F370">
+        <v>24.2</v>
+      </c>
+      <c r="G370" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" t="s">
+        <v>19</v>
+      </c>
+      <c r="B371" t="s">
+        <v>24</v>
+      </c>
+      <c r="C371" t="s">
+        <v>33</v>
+      </c>
+      <c r="D371">
+        <v>35</v>
+      </c>
+      <c r="E371">
+        <v>141</v>
+      </c>
+      <c r="F371">
+        <v>24.8</v>
+      </c>
+      <c r="G371" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372" t="s">
+        <v>25</v>
+      </c>
+      <c r="C372" t="s">
+        <v>29</v>
+      </c>
+      <c r="D372">
+        <v>12</v>
+      </c>
+      <c r="E372">
+        <v>12</v>
+      </c>
+      <c r="F372">
+        <v>100</v>
+      </c>
+      <c r="G372" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" t="s">
+        <v>19</v>
+      </c>
+      <c r="B373" t="s">
+        <v>25</v>
+      </c>
+      <c r="C373" t="s">
+        <v>30</v>
+      </c>
+      <c r="D373">
+        <v>466</v>
+      </c>
+      <c r="E373">
+        <v>498</v>
+      </c>
+      <c r="F373">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G373" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" t="s">
+        <v>19</v>
+      </c>
+      <c r="B374" t="s">
+        <v>25</v>
+      </c>
+      <c r="C374" t="s">
+        <v>31</v>
+      </c>
+      <c r="D374">
+        <v>756</v>
+      </c>
+      <c r="E374">
+        <v>865</v>
+      </c>
+      <c r="F374">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G374" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375" t="s">
+        <v>25</v>
+      </c>
+      <c r="C375" t="s">
+        <v>32</v>
+      </c>
+      <c r="D375">
+        <v>1381</v>
+      </c>
+      <c r="E375">
+        <v>1825</v>
+      </c>
+      <c r="F375">
+        <v>75.7</v>
+      </c>
+      <c r="G375" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" t="s">
+        <v>25</v>
+      </c>
+      <c r="C376" t="s">
+        <v>33</v>
+      </c>
+      <c r="D376">
+        <v>115</v>
+      </c>
+      <c r="E376">
+        <v>141</v>
+      </c>
+      <c r="F376">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="G376" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" t="s">
+        <v>19</v>
+      </c>
+      <c r="B377" t="s">
+        <v>26</v>
+      </c>
+      <c r="C377" t="s">
+        <v>29</v>
+      </c>
+      <c r="D377">
+        <v>10</v>
+      </c>
+      <c r="E377">
+        <v>12</v>
+      </c>
+      <c r="F377">
+        <v>83.3</v>
+      </c>
+      <c r="G377" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" t="s">
+        <v>19</v>
+      </c>
+      <c r="B378" t="s">
+        <v>26</v>
+      </c>
+      <c r="C378" t="s">
+        <v>30</v>
+      </c>
+      <c r="D378">
+        <v>336</v>
+      </c>
+      <c r="E378">
+        <v>498</v>
+      </c>
+      <c r="F378">
+        <v>67.5</v>
+      </c>
+      <c r="G378" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" t="s">
+        <v>19</v>
+      </c>
+      <c r="B379" t="s">
+        <v>26</v>
+      </c>
+      <c r="C379" t="s">
+        <v>31</v>
+      </c>
+      <c r="D379">
+        <v>490</v>
+      </c>
+      <c r="E379">
+        <v>865</v>
+      </c>
+      <c r="F379">
+        <v>56.6</v>
+      </c>
+      <c r="G379" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" t="s">
+        <v>19</v>
+      </c>
+      <c r="B380" t="s">
+        <v>26</v>
+      </c>
+      <c r="C380" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380">
+        <v>809</v>
+      </c>
+      <c r="E380">
+        <v>1825</v>
+      </c>
+      <c r="F380">
+        <v>44.3</v>
+      </c>
+      <c r="G380" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>19</v>
+      </c>
+      <c r="B381" t="s">
+        <v>26</v>
+      </c>
+      <c r="C381" t="s">
+        <v>33</v>
+      </c>
+      <c r="D381">
+        <v>66</v>
+      </c>
+      <c r="E381">
+        <v>141</v>
+      </c>
+      <c r="F381">
+        <v>46.8</v>
+      </c>
+      <c r="G381" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>19</v>
+      </c>
+      <c r="B382" t="s">
+        <v>27</v>
+      </c>
+      <c r="C382" t="s">
+        <v>29</v>
+      </c>
+      <c r="D382">
+        <v>11</v>
+      </c>
+      <c r="E382">
+        <v>12</v>
+      </c>
+      <c r="F382">
+        <v>91.7</v>
+      </c>
+      <c r="G382" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>19</v>
+      </c>
+      <c r="B383" t="s">
+        <v>27</v>
+      </c>
+      <c r="C383" t="s">
+        <v>30</v>
+      </c>
+      <c r="D383">
+        <v>378</v>
+      </c>
+      <c r="E383">
+        <v>498</v>
+      </c>
+      <c r="F383">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G383" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" t="s">
+        <v>19</v>
+      </c>
+      <c r="B384" t="s">
+        <v>27</v>
+      </c>
+      <c r="C384" t="s">
+        <v>31</v>
+      </c>
+      <c r="D384">
+        <v>643</v>
+      </c>
+      <c r="E384">
+        <v>865</v>
+      </c>
+      <c r="F384">
+        <v>74.3</v>
+      </c>
+      <c r="G384" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" t="s">
+        <v>27</v>
+      </c>
+      <c r="C385" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385">
+        <v>1147</v>
+      </c>
+      <c r="E385">
+        <v>1825</v>
+      </c>
+      <c r="F385">
+        <v>62.8</v>
+      </c>
+      <c r="G385" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" t="s">
+        <v>19</v>
+      </c>
+      <c r="B386" t="s">
+        <v>27</v>
+      </c>
+      <c r="C386" t="s">
+        <v>33</v>
+      </c>
+      <c r="D386">
+        <v>87</v>
+      </c>
+      <c r="E386">
+        <v>141</v>
+      </c>
+      <c r="F386">
+        <v>61.7</v>
+      </c>
+      <c r="G386" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" t="s">
+        <v>19</v>
+      </c>
+      <c r="B387" t="s">
+        <v>28</v>
+      </c>
+      <c r="C387" t="s">
+        <v>29</v>
+      </c>
+      <c r="D387">
+        <v>5</v>
+      </c>
+      <c r="E387">
+        <v>12</v>
+      </c>
+      <c r="F387">
+        <v>41.7</v>
+      </c>
+      <c r="G387" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" t="s">
+        <v>19</v>
+      </c>
+      <c r="B388" t="s">
+        <v>28</v>
+      </c>
+      <c r="C388" t="s">
+        <v>30</v>
+      </c>
+      <c r="D388">
+        <v>242</v>
+      </c>
+      <c r="E388">
+        <v>498</v>
+      </c>
+      <c r="F388">
+        <v>48.6</v>
+      </c>
+      <c r="G388" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" t="s">
+        <v>19</v>
+      </c>
+      <c r="B389" t="s">
+        <v>28</v>
+      </c>
+      <c r="C389" t="s">
+        <v>31</v>
+      </c>
+      <c r="D389">
+        <v>369</v>
+      </c>
+      <c r="E389">
+        <v>865</v>
+      </c>
+      <c r="F389">
+        <v>42.7</v>
+      </c>
+      <c r="G389" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" t="s">
+        <v>19</v>
+      </c>
+      <c r="B390" t="s">
+        <v>28</v>
+      </c>
+      <c r="C390" t="s">
+        <v>32</v>
+      </c>
+      <c r="D390">
+        <v>659</v>
+      </c>
+      <c r="E390">
+        <v>1825</v>
+      </c>
+      <c r="F390">
+        <v>36.1</v>
+      </c>
+      <c r="G390" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" t="s">
+        <v>19</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391" t="s">
+        <v>33</v>
+      </c>
+      <c r="D391">
+        <v>45</v>
+      </c>
+      <c r="E391">
+        <v>141</v>
+      </c>
+      <c r="F391">
+        <v>31.9</v>
+      </c>
+      <c r="G391" s="2">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" t="s">
+        <v>20</v>
+      </c>
+      <c r="B392" t="s">
+        <v>23</v>
+      </c>
+      <c r="C392" t="s">
+        <v>29</v>
+      </c>
+      <c r="D392">
+        <v>8</v>
+      </c>
+      <c r="E392">
+        <v>12</v>
+      </c>
+      <c r="F392">
+        <v>66.7</v>
+      </c>
+      <c r="G392" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" t="s">
+        <v>20</v>
+      </c>
+      <c r="B393" t="s">
+        <v>23</v>
+      </c>
+      <c r="C393" t="s">
+        <v>30</v>
+      </c>
+      <c r="D393">
+        <v>315</v>
+      </c>
+      <c r="E393">
+        <v>498</v>
+      </c>
+      <c r="F393">
+        <v>63.3</v>
+      </c>
+      <c r="G393" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" t="s">
+        <v>20</v>
+      </c>
+      <c r="B394" t="s">
+        <v>23</v>
+      </c>
+      <c r="C394" t="s">
+        <v>31</v>
+      </c>
+      <c r="D394">
+        <v>493</v>
+      </c>
+      <c r="E394">
+        <v>865</v>
+      </c>
+      <c r="F394">
+        <v>57</v>
+      </c>
+      <c r="G394" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" t="s">
+        <v>20</v>
+      </c>
+      <c r="B395" t="s">
+        <v>23</v>
+      </c>
+      <c r="C395" t="s">
+        <v>32</v>
+      </c>
+      <c r="D395">
+        <v>878</v>
+      </c>
+      <c r="E395">
+        <v>1825</v>
+      </c>
+      <c r="F395">
+        <v>48.1</v>
+      </c>
+      <c r="G395" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" t="s">
+        <v>20</v>
+      </c>
+      <c r="B396" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396" t="s">
+        <v>33</v>
+      </c>
+      <c r="D396">
+        <v>64</v>
+      </c>
+      <c r="E396">
+        <v>141</v>
+      </c>
+      <c r="F396">
+        <v>45.4</v>
+      </c>
+      <c r="G396" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" t="s">
+        <v>20</v>
+      </c>
+      <c r="B397" t="s">
+        <v>24</v>
+      </c>
+      <c r="C397" t="s">
+        <v>29</v>
+      </c>
+      <c r="D397">
+        <v>9</v>
+      </c>
+      <c r="E397">
+        <v>12</v>
+      </c>
+      <c r="F397">
+        <v>75</v>
+      </c>
+      <c r="G397" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" t="s">
+        <v>20</v>
+      </c>
+      <c r="B398" t="s">
+        <v>24</v>
+      </c>
+      <c r="C398" t="s">
+        <v>30</v>
+      </c>
+      <c r="D398">
+        <v>263</v>
+      </c>
+      <c r="E398">
+        <v>498</v>
+      </c>
+      <c r="F398">
+        <v>52.8</v>
+      </c>
+      <c r="G398" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
+        <v>20</v>
+      </c>
+      <c r="B399" t="s">
+        <v>24</v>
+      </c>
+      <c r="C399" t="s">
+        <v>31</v>
+      </c>
+      <c r="D399">
+        <v>336</v>
+      </c>
+      <c r="E399">
+        <v>865</v>
+      </c>
+      <c r="F399">
+        <v>38.8</v>
+      </c>
+      <c r="G399" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" t="s">
+        <v>20</v>
+      </c>
+      <c r="B400" t="s">
+        <v>24</v>
+      </c>
+      <c r="C400" t="s">
+        <v>32</v>
+      </c>
+      <c r="D400">
+        <v>442</v>
+      </c>
+      <c r="E400">
+        <v>1825</v>
+      </c>
+      <c r="F400">
+        <v>24.2</v>
+      </c>
+      <c r="G400" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" t="s">
+        <v>20</v>
+      </c>
+      <c r="B401" t="s">
+        <v>24</v>
+      </c>
+      <c r="C401" t="s">
+        <v>33</v>
+      </c>
+      <c r="D401">
+        <v>33</v>
+      </c>
+      <c r="E401">
+        <v>141</v>
+      </c>
+      <c r="F401">
+        <v>23.4</v>
+      </c>
+      <c r="G401" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" t="s">
+        <v>20</v>
+      </c>
+      <c r="B402" t="s">
+        <v>25</v>
+      </c>
+      <c r="C402" t="s">
+        <v>29</v>
+      </c>
+      <c r="D402">
+        <v>12</v>
+      </c>
+      <c r="E402">
+        <v>12</v>
+      </c>
+      <c r="F402">
+        <v>100</v>
+      </c>
+      <c r="G402" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" t="s">
+        <v>20</v>
+      </c>
+      <c r="B403" t="s">
+        <v>25</v>
+      </c>
+      <c r="C403" t="s">
+        <v>30</v>
+      </c>
+      <c r="D403">
+        <v>466</v>
+      </c>
+      <c r="E403">
+        <v>498</v>
+      </c>
+      <c r="F403">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="G403" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" t="s">
+        <v>20</v>
+      </c>
+      <c r="B404" t="s">
+        <v>25</v>
+      </c>
+      <c r="C404" t="s">
+        <v>31</v>
+      </c>
+      <c r="D404">
+        <v>755</v>
+      </c>
+      <c r="E404">
+        <v>865</v>
+      </c>
+      <c r="F404">
+        <v>87.3</v>
+      </c>
+      <c r="G404" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" t="s">
+        <v>20</v>
+      </c>
+      <c r="B405" t="s">
+        <v>25</v>
+      </c>
+      <c r="C405" t="s">
+        <v>32</v>
+      </c>
+      <c r="D405">
+        <v>1380</v>
+      </c>
+      <c r="E405">
+        <v>1825</v>
+      </c>
+      <c r="F405">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G405" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" t="s">
+        <v>20</v>
+      </c>
+      <c r="B406" t="s">
+        <v>25</v>
+      </c>
+      <c r="C406" t="s">
+        <v>33</v>
+      </c>
+      <c r="D406">
+        <v>112</v>
+      </c>
+      <c r="E406">
+        <v>141</v>
+      </c>
+      <c r="F406">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="G406" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" t="s">
+        <v>20</v>
+      </c>
+      <c r="B407" t="s">
+        <v>26</v>
+      </c>
+      <c r="C407" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407">
+        <v>10</v>
+      </c>
+      <c r="E407">
+        <v>12</v>
+      </c>
+      <c r="F407">
+        <v>83.3</v>
+      </c>
+      <c r="G407" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" t="s">
+        <v>20</v>
+      </c>
+      <c r="B408" t="s">
+        <v>26</v>
+      </c>
+      <c r="C408" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408">
+        <v>334</v>
+      </c>
+      <c r="E408">
+        <v>498</v>
+      </c>
+      <c r="F408">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="G408" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" t="s">
+        <v>20</v>
+      </c>
+      <c r="B409" t="s">
+        <v>26</v>
+      </c>
+      <c r="C409" t="s">
+        <v>31</v>
+      </c>
+      <c r="D409">
+        <v>488</v>
+      </c>
+      <c r="E409">
+        <v>865</v>
+      </c>
+      <c r="F409">
+        <v>56.4</v>
+      </c>
+      <c r="G409" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" t="s">
+        <v>20</v>
+      </c>
+      <c r="B410" t="s">
+        <v>26</v>
+      </c>
+      <c r="C410" t="s">
+        <v>32</v>
+      </c>
+      <c r="D410">
+        <v>812</v>
+      </c>
+      <c r="E410">
+        <v>1825</v>
+      </c>
+      <c r="F410">
+        <v>44.5</v>
+      </c>
+      <c r="G410" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" t="s">
+        <v>20</v>
+      </c>
+      <c r="B411" t="s">
+        <v>26</v>
+      </c>
+      <c r="C411" t="s">
+        <v>33</v>
+      </c>
+      <c r="D411">
+        <v>64</v>
+      </c>
+      <c r="E411">
+        <v>141</v>
+      </c>
+      <c r="F411">
+        <v>45.4</v>
+      </c>
+      <c r="G411" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" t="s">
+        <v>20</v>
+      </c>
+      <c r="B412" t="s">
+        <v>27</v>
+      </c>
+      <c r="C412" t="s">
+        <v>29</v>
+      </c>
+      <c r="D412">
+        <v>11</v>
+      </c>
+      <c r="E412">
+        <v>12</v>
+      </c>
+      <c r="F412">
+        <v>91.7</v>
+      </c>
+      <c r="G412" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" t="s">
+        <v>20</v>
+      </c>
+      <c r="B413" t="s">
+        <v>27</v>
+      </c>
+      <c r="C413" t="s">
+        <v>30</v>
+      </c>
+      <c r="D413">
+        <v>379</v>
+      </c>
+      <c r="E413">
+        <v>498</v>
+      </c>
+      <c r="F413">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="G413" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" t="s">
+        <v>20</v>
+      </c>
+      <c r="B414" t="s">
+        <v>27</v>
+      </c>
+      <c r="C414" t="s">
+        <v>31</v>
+      </c>
+      <c r="D414">
+        <v>642</v>
+      </c>
+      <c r="E414">
+        <v>865</v>
+      </c>
+      <c r="F414">
+        <v>74.2</v>
+      </c>
+      <c r="G414" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" t="s">
+        <v>20</v>
+      </c>
+      <c r="B415" t="s">
+        <v>27</v>
+      </c>
+      <c r="C415" t="s">
+        <v>32</v>
+      </c>
+      <c r="D415">
+        <v>1145</v>
+      </c>
+      <c r="E415">
+        <v>1825</v>
+      </c>
+      <c r="F415">
+        <v>62.7</v>
+      </c>
+      <c r="G415" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" t="s">
+        <v>20</v>
+      </c>
+      <c r="B416" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" t="s">
+        <v>33</v>
+      </c>
+      <c r="D416">
+        <v>85</v>
+      </c>
+      <c r="E416">
+        <v>141</v>
+      </c>
+      <c r="F416">
+        <v>60.3</v>
+      </c>
+      <c r="G416" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" t="s">
+        <v>20</v>
+      </c>
+      <c r="B417" t="s">
+        <v>28</v>
+      </c>
+      <c r="C417" t="s">
+        <v>29</v>
+      </c>
+      <c r="D417">
+        <v>5</v>
+      </c>
+      <c r="E417">
+        <v>12</v>
+      </c>
+      <c r="F417">
+        <v>41.7</v>
+      </c>
+      <c r="G417" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" t="s">
+        <v>20</v>
+      </c>
+      <c r="B418" t="s">
+        <v>28</v>
+      </c>
+      <c r="C418" t="s">
+        <v>30</v>
+      </c>
+      <c r="D418">
+        <v>237</v>
+      </c>
+      <c r="E418">
+        <v>498</v>
+      </c>
+      <c r="F418">
+        <v>47.6</v>
+      </c>
+      <c r="G418" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" t="s">
+        <v>20</v>
+      </c>
+      <c r="B419" t="s">
+        <v>28</v>
+      </c>
+      <c r="C419" t="s">
+        <v>31</v>
+      </c>
+      <c r="D419">
+        <v>363</v>
+      </c>
+      <c r="E419">
+        <v>865</v>
+      </c>
+      <c r="F419">
+        <v>42</v>
+      </c>
+      <c r="G419" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" t="s">
+        <v>20</v>
+      </c>
+      <c r="B420" t="s">
+        <v>28</v>
+      </c>
+      <c r="C420" t="s">
+        <v>32</v>
+      </c>
+      <c r="D420">
+        <v>661</v>
+      </c>
+      <c r="E420">
+        <v>1825</v>
+      </c>
+      <c r="F420">
+        <v>36.2</v>
+      </c>
+      <c r="G420" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" t="s">
+        <v>20</v>
+      </c>
+      <c r="B421" t="s">
+        <v>28</v>
+      </c>
+      <c r="C421" t="s">
+        <v>33</v>
+      </c>
+      <c r="D421">
+        <v>42</v>
+      </c>
+      <c r="E421">
+        <v>141</v>
+      </c>
+      <c r="F421">
+        <v>29.8</v>
+      </c>
+      <c r="G421" s="2">
+        <v>44648</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" t="s">
+        <v>21</v>
+      </c>
+      <c r="B422" t="s">
+        <v>23</v>
+      </c>
+      <c r="C422" t="s">
+        <v>29</v>
+      </c>
+      <c r="D422">
+        <v>8</v>
+      </c>
+      <c r="E422">
+        <v>12</v>
+      </c>
+      <c r="F422">
+        <v>66.7</v>
+      </c>
+      <c r="G422" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" t="s">
+        <v>21</v>
+      </c>
+      <c r="B423" t="s">
+        <v>23</v>
+      </c>
+      <c r="C423" t="s">
+        <v>30</v>
+      </c>
+      <c r="D423">
+        <v>313</v>
+      </c>
+      <c r="E423">
+        <v>498</v>
+      </c>
+      <c r="F423">
+        <v>62.9</v>
+      </c>
+      <c r="G423" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" t="s">
+        <v>21</v>
+      </c>
+      <c r="B424" t="s">
+        <v>23</v>
+      </c>
+      <c r="C424" t="s">
+        <v>31</v>
+      </c>
+      <c r="D424">
+        <v>480</v>
+      </c>
+      <c r="E424">
+        <v>865</v>
+      </c>
+      <c r="F424">
+        <v>55.5</v>
+      </c>
+      <c r="G424" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" t="s">
+        <v>21</v>
+      </c>
+      <c r="B425" t="s">
+        <v>23</v>
+      </c>
+      <c r="C425" t="s">
+        <v>32</v>
+      </c>
+      <c r="D425">
+        <v>862</v>
+      </c>
+      <c r="E425">
+        <v>1825</v>
+      </c>
+      <c r="F425">
+        <v>47.2</v>
+      </c>
+      <c r="G425" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" t="s">
+        <v>21</v>
+      </c>
+      <c r="B426" t="s">
+        <v>23</v>
+      </c>
+      <c r="C426" t="s">
+        <v>33</v>
+      </c>
+      <c r="D426">
+        <v>65</v>
+      </c>
+      <c r="E426">
+        <v>141</v>
+      </c>
+      <c r="F426">
+        <v>46.1</v>
+      </c>
+      <c r="G426" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" t="s">
+        <v>21</v>
+      </c>
+      <c r="B427" t="s">
+        <v>24</v>
+      </c>
+      <c r="C427" t="s">
+        <v>29</v>
+      </c>
+      <c r="D427">
+        <v>9</v>
+      </c>
+      <c r="E427">
+        <v>12</v>
+      </c>
+      <c r="F427">
+        <v>75</v>
+      </c>
+      <c r="G427" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" t="s">
+        <v>21</v>
+      </c>
+      <c r="B428" t="s">
+        <v>24</v>
+      </c>
+      <c r="C428" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428">
+        <v>262</v>
+      </c>
+      <c r="E428">
+        <v>498</v>
+      </c>
+      <c r="F428">
+        <v>52.6</v>
+      </c>
+      <c r="G428" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" t="s">
+        <v>21</v>
+      </c>
+      <c r="B429" t="s">
+        <v>24</v>
+      </c>
+      <c r="C429" t="s">
+        <v>31</v>
+      </c>
+      <c r="D429">
+        <v>333</v>
+      </c>
+      <c r="E429">
+        <v>865</v>
+      </c>
+      <c r="F429">
+        <v>38.5</v>
+      </c>
+      <c r="G429" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" t="s">
+        <v>21</v>
+      </c>
+      <c r="B430" t="s">
+        <v>24</v>
+      </c>
+      <c r="C430" t="s">
+        <v>32</v>
+      </c>
+      <c r="D430">
+        <v>437</v>
+      </c>
+      <c r="E430">
+        <v>1825</v>
+      </c>
+      <c r="F430">
+        <v>23.9</v>
+      </c>
+      <c r="G430" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" t="s">
+        <v>21</v>
+      </c>
+      <c r="B431" t="s">
+        <v>24</v>
+      </c>
+      <c r="C431" t="s">
+        <v>33</v>
+      </c>
+      <c r="D431">
+        <v>34</v>
+      </c>
+      <c r="E431">
+        <v>141</v>
+      </c>
+      <c r="F431">
+        <v>24.1</v>
+      </c>
+      <c r="G431" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" t="s">
+        <v>21</v>
+      </c>
+      <c r="B432" t="s">
+        <v>25</v>
+      </c>
+      <c r="C432" t="s">
+        <v>29</v>
+      </c>
+      <c r="D432">
+        <v>12</v>
+      </c>
+      <c r="E432">
+        <v>12</v>
+      </c>
+      <c r="F432">
+        <v>100</v>
+      </c>
+      <c r="G432" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" t="s">
+        <v>21</v>
+      </c>
+      <c r="B433" t="s">
+        <v>25</v>
+      </c>
+      <c r="C433" t="s">
+        <v>30</v>
+      </c>
+      <c r="D433">
+        <v>468</v>
+      </c>
+      <c r="E433">
+        <v>498</v>
+      </c>
+      <c r="F433">
+        <v>94</v>
+      </c>
+      <c r="G433" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" t="s">
+        <v>21</v>
+      </c>
+      <c r="B434" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" t="s">
+        <v>31</v>
+      </c>
+      <c r="D434">
+        <v>751</v>
+      </c>
+      <c r="E434">
+        <v>865</v>
+      </c>
+      <c r="F434">
+        <v>86.8</v>
+      </c>
+      <c r="G434" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" t="s">
+        <v>21</v>
+      </c>
+      <c r="B435" t="s">
+        <v>25</v>
+      </c>
+      <c r="C435" t="s">
+        <v>32</v>
+      </c>
+      <c r="D435">
+        <v>1382</v>
+      </c>
+      <c r="E435">
+        <v>1825</v>
+      </c>
+      <c r="F435">
+        <v>75.7</v>
+      </c>
+      <c r="G435" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" t="s">
+        <v>21</v>
+      </c>
+      <c r="B436" t="s">
+        <v>25</v>
+      </c>
+      <c r="C436" t="s">
+        <v>33</v>
+      </c>
+      <c r="D436">
+        <v>113</v>
+      </c>
+      <c r="E436">
+        <v>141</v>
+      </c>
+      <c r="F436">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="G436" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" t="s">
+        <v>21</v>
+      </c>
+      <c r="B437" t="s">
+        <v>26</v>
+      </c>
+      <c r="C437" t="s">
+        <v>29</v>
+      </c>
+      <c r="D437">
+        <v>10</v>
+      </c>
+      <c r="E437">
+        <v>12</v>
+      </c>
+      <c r="F437">
+        <v>83.3</v>
+      </c>
+      <c r="G437" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" t="s">
+        <v>21</v>
+      </c>
+      <c r="B438" t="s">
+        <v>26</v>
+      </c>
+      <c r="C438" t="s">
+        <v>30</v>
+      </c>
+      <c r="D438">
+        <v>332</v>
+      </c>
+      <c r="E438">
+        <v>498</v>
+      </c>
+      <c r="F438">
+        <v>66.7</v>
+      </c>
+      <c r="G438" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" t="s">
+        <v>21</v>
+      </c>
+      <c r="B439" t="s">
+        <v>26</v>
+      </c>
+      <c r="C439" t="s">
+        <v>31</v>
+      </c>
+      <c r="D439">
+        <v>486</v>
+      </c>
+      <c r="E439">
+        <v>865</v>
+      </c>
+      <c r="F439">
+        <v>56.2</v>
+      </c>
+      <c r="G439" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" t="s">
+        <v>21</v>
+      </c>
+      <c r="B440" t="s">
+        <v>26</v>
+      </c>
+      <c r="C440" t="s">
+        <v>32</v>
+      </c>
+      <c r="D440">
+        <v>807</v>
+      </c>
+      <c r="E440">
+        <v>1825</v>
+      </c>
+      <c r="F440">
+        <v>44.2</v>
+      </c>
+      <c r="G440" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" t="s">
+        <v>21</v>
+      </c>
+      <c r="B441" t="s">
+        <v>26</v>
+      </c>
+      <c r="C441" t="s">
+        <v>33</v>
+      </c>
+      <c r="D441">
+        <v>64</v>
+      </c>
+      <c r="E441">
+        <v>141</v>
+      </c>
+      <c r="F441">
+        <v>45.4</v>
+      </c>
+      <c r="G441" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" t="s">
+        <v>21</v>
+      </c>
+      <c r="B442" t="s">
+        <v>27</v>
+      </c>
+      <c r="C442" t="s">
+        <v>29</v>
+      </c>
+      <c r="D442">
+        <v>11</v>
+      </c>
+      <c r="E442">
+        <v>12</v>
+      </c>
+      <c r="F442">
+        <v>91.7</v>
+      </c>
+      <c r="G442" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" t="s">
+        <v>21</v>
+      </c>
+      <c r="B443" t="s">
+        <v>27</v>
+      </c>
+      <c r="C443" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443">
+        <v>377</v>
+      </c>
+      <c r="E443">
+        <v>498</v>
+      </c>
+      <c r="F443">
+        <v>75.7</v>
+      </c>
+      <c r="G443" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" t="s">
+        <v>21</v>
+      </c>
+      <c r="B444" t="s">
+        <v>27</v>
+      </c>
+      <c r="C444" t="s">
+        <v>31</v>
+      </c>
+      <c r="D444">
+        <v>640</v>
+      </c>
+      <c r="E444">
+        <v>865</v>
+      </c>
+      <c r="F444">
+        <v>74</v>
+      </c>
+      <c r="G444" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" t="s">
+        <v>21</v>
+      </c>
+      <c r="B445" t="s">
+        <v>27</v>
+      </c>
+      <c r="C445" t="s">
+        <v>32</v>
+      </c>
+      <c r="D445">
+        <v>1138</v>
+      </c>
+      <c r="E445">
+        <v>1825</v>
+      </c>
+      <c r="F445">
+        <v>62.4</v>
+      </c>
+      <c r="G445" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" t="s">
+        <v>21</v>
+      </c>
+      <c r="B446" t="s">
+        <v>27</v>
+      </c>
+      <c r="C446" t="s">
+        <v>33</v>
+      </c>
+      <c r="D446">
+        <v>85</v>
+      </c>
+      <c r="E446">
+        <v>141</v>
+      </c>
+      <c r="F446">
+        <v>60.3</v>
+      </c>
+      <c r="G446" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" t="s">
+        <v>21</v>
+      </c>
+      <c r="B447" t="s">
+        <v>28</v>
+      </c>
+      <c r="C447" t="s">
+        <v>29</v>
+      </c>
+      <c r="D447">
+        <v>5</v>
+      </c>
+      <c r="E447">
+        <v>12</v>
+      </c>
+      <c r="F447">
+        <v>41.7</v>
+      </c>
+      <c r="G447" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" t="s">
+        <v>21</v>
+      </c>
+      <c r="B448" t="s">
+        <v>28</v>
+      </c>
+      <c r="C448" t="s">
+        <v>30</v>
+      </c>
+      <c r="D448">
+        <v>236</v>
+      </c>
+      <c r="E448">
+        <v>498</v>
+      </c>
+      <c r="F448">
+        <v>47.4</v>
+      </c>
+      <c r="G448" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" t="s">
+        <v>21</v>
+      </c>
+      <c r="B449" t="s">
+        <v>28</v>
+      </c>
+      <c r="C449" t="s">
+        <v>31</v>
+      </c>
+      <c r="D449">
+        <v>363</v>
+      </c>
+      <c r="E449">
+        <v>865</v>
+      </c>
+      <c r="F449">
+        <v>42</v>
+      </c>
+      <c r="G449" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" t="s">
+        <v>21</v>
+      </c>
+      <c r="B450" t="s">
+        <v>28</v>
+      </c>
+      <c r="C450" t="s">
+        <v>32</v>
+      </c>
+      <c r="D450">
+        <v>655</v>
+      </c>
+      <c r="E450">
+        <v>1825</v>
+      </c>
+      <c r="F450">
+        <v>35.9</v>
+      </c>
+      <c r="G450" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" t="s">
+        <v>21</v>
+      </c>
+      <c r="B451" t="s">
+        <v>28</v>
+      </c>
+      <c r="C451" t="s">
+        <v>33</v>
+      </c>
+      <c r="D451">
+        <v>44</v>
+      </c>
+      <c r="E451">
+        <v>141</v>
+      </c>
+      <c r="F451">
+        <v>31.2</v>
+      </c>
+      <c r="G451" s="2">
+        <v>44676</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
+      <c r="A452" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452" t="s">
+        <v>23</v>
+      </c>
+      <c r="C452" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452">
+        <v>7</v>
+      </c>
+      <c r="E452">
+        <v>12</v>
+      </c>
+      <c r="F452">
+        <v>58.3</v>
+      </c>
+      <c r="G452" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
+      <c r="A453" t="s">
+        <v>22</v>
+      </c>
+      <c r="B453" t="s">
+        <v>23</v>
+      </c>
+      <c r="C453" t="s">
+        <v>30</v>
+      </c>
+      <c r="D453">
+        <v>311</v>
+      </c>
+      <c r="E453">
+        <v>498</v>
+      </c>
+      <c r="F453">
+        <v>62.4</v>
+      </c>
+      <c r="G453" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
+      <c r="A454" t="s">
+        <v>22</v>
+      </c>
+      <c r="B454" t="s">
+        <v>23</v>
+      </c>
+      <c r="C454" t="s">
+        <v>31</v>
+      </c>
+      <c r="D454">
+        <v>479</v>
+      </c>
+      <c r="E454">
+        <v>865</v>
+      </c>
+      <c r="F454">
+        <v>55.4</v>
+      </c>
+      <c r="G454" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
+      <c r="A455" t="s">
+        <v>22</v>
+      </c>
+      <c r="B455" t="s">
+        <v>23</v>
+      </c>
+      <c r="C455" t="s">
+        <v>32</v>
+      </c>
+      <c r="D455">
+        <v>853</v>
+      </c>
+      <c r="E455">
+        <v>1825</v>
+      </c>
+      <c r="F455">
+        <v>46.7</v>
+      </c>
+      <c r="G455" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
+      <c r="A456" t="s">
+        <v>22</v>
+      </c>
+      <c r="B456" t="s">
+        <v>23</v>
+      </c>
+      <c r="C456" t="s">
+        <v>33</v>
+      </c>
+      <c r="D456">
+        <v>64</v>
+      </c>
+      <c r="E456">
+        <v>141</v>
+      </c>
+      <c r="F456">
+        <v>45.4</v>
+      </c>
+      <c r="G456" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
+      <c r="A457" t="s">
+        <v>22</v>
+      </c>
+      <c r="B457" t="s">
+        <v>24</v>
+      </c>
+      <c r="C457" t="s">
+        <v>29</v>
+      </c>
+      <c r="D457">
+        <v>9</v>
+      </c>
+      <c r="E457">
+        <v>12</v>
+      </c>
+      <c r="F457">
+        <v>75</v>
+      </c>
+      <c r="G457" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
+      <c r="A458" t="s">
+        <v>22</v>
+      </c>
+      <c r="B458" t="s">
+        <v>24</v>
+      </c>
+      <c r="C458" t="s">
+        <v>30</v>
+      </c>
+      <c r="D458">
+        <v>263</v>
+      </c>
+      <c r="E458">
+        <v>498</v>
+      </c>
+      <c r="F458">
+        <v>52.8</v>
+      </c>
+      <c r="G458" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
+      <c r="A459" t="s">
+        <v>22</v>
+      </c>
+      <c r="B459" t="s">
+        <v>24</v>
+      </c>
+      <c r="C459" t="s">
+        <v>31</v>
+      </c>
+      <c r="D459">
+        <v>331</v>
+      </c>
+      <c r="E459">
+        <v>865</v>
+      </c>
+      <c r="F459">
+        <v>38.3</v>
+      </c>
+      <c r="G459" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" t="s">
+        <v>22</v>
+      </c>
+      <c r="B460" t="s">
+        <v>24</v>
+      </c>
+      <c r="C460" t="s">
+        <v>32</v>
+      </c>
+      <c r="D460">
+        <v>439</v>
+      </c>
+      <c r="E460">
+        <v>1825</v>
+      </c>
+      <c r="F460">
+        <v>24.1</v>
+      </c>
+      <c r="G460" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" t="s">
+        <v>22</v>
+      </c>
+      <c r="B461" t="s">
+        <v>24</v>
+      </c>
+      <c r="C461" t="s">
+        <v>33</v>
+      </c>
+      <c r="D461">
+        <v>33</v>
+      </c>
+      <c r="E461">
+        <v>141</v>
+      </c>
+      <c r="F461">
+        <v>23.4</v>
+      </c>
+      <c r="G461" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" t="s">
+        <v>22</v>
+      </c>
+      <c r="B462" t="s">
+        <v>25</v>
+      </c>
+      <c r="C462" t="s">
+        <v>29</v>
+      </c>
+      <c r="D462">
+        <v>12</v>
+      </c>
+      <c r="E462">
+        <v>12</v>
+      </c>
+      <c r="F462">
+        <v>100</v>
+      </c>
+      <c r="G462" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" t="s">
+        <v>22</v>
+      </c>
+      <c r="B463" t="s">
+        <v>25</v>
+      </c>
+      <c r="C463" t="s">
+        <v>30</v>
+      </c>
+      <c r="D463">
+        <v>467</v>
+      </c>
+      <c r="E463">
+        <v>498</v>
+      </c>
+      <c r="F463">
+        <v>93.8</v>
+      </c>
+      <c r="G463" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
+      <c r="A464" t="s">
+        <v>22</v>
+      </c>
+      <c r="B464" t="s">
+        <v>25</v>
+      </c>
+      <c r="C464" t="s">
+        <v>31</v>
+      </c>
+      <c r="D464">
+        <v>755</v>
+      </c>
+      <c r="E464">
+        <v>865</v>
+      </c>
+      <c r="F464">
+        <v>87.3</v>
+      </c>
+      <c r="G464" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
+      <c r="A465" t="s">
+        <v>22</v>
+      </c>
+      <c r="B465" t="s">
+        <v>25</v>
+      </c>
+      <c r="C465" t="s">
+        <v>32</v>
+      </c>
+      <c r="D465">
+        <v>1378</v>
+      </c>
+      <c r="E465">
+        <v>1825</v>
+      </c>
+      <c r="F465">
+        <v>75.5</v>
+      </c>
+      <c r="G465" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
+      <c r="A466" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466" t="s">
+        <v>25</v>
+      </c>
+      <c r="C466" t="s">
+        <v>33</v>
+      </c>
+      <c r="D466">
+        <v>111</v>
+      </c>
+      <c r="E466">
+        <v>141</v>
+      </c>
+      <c r="F466">
+        <v>78.7</v>
+      </c>
+      <c r="G466" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
+      <c r="A467" t="s">
+        <v>22</v>
+      </c>
+      <c r="B467" t="s">
+        <v>26</v>
+      </c>
+      <c r="C467" t="s">
+        <v>29</v>
+      </c>
+      <c r="D467">
+        <v>10</v>
+      </c>
+      <c r="E467">
+        <v>12</v>
+      </c>
+      <c r="F467">
+        <v>83.3</v>
+      </c>
+      <c r="G467" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
+      <c r="A468" t="s">
+        <v>22</v>
+      </c>
+      <c r="B468" t="s">
+        <v>26</v>
+      </c>
+      <c r="C468" t="s">
+        <v>30</v>
+      </c>
+      <c r="D468">
+        <v>334</v>
+      </c>
+      <c r="E468">
+        <v>498</v>
+      </c>
+      <c r="F468">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="G468" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" t="s">
+        <v>26</v>
+      </c>
+      <c r="C469" t="s">
+        <v>31</v>
+      </c>
+      <c r="D469">
+        <v>490</v>
+      </c>
+      <c r="E469">
+        <v>865</v>
+      </c>
+      <c r="F469">
+        <v>56.6</v>
+      </c>
+      <c r="G469" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" t="s">
+        <v>22</v>
+      </c>
+      <c r="B470" t="s">
+        <v>26</v>
+      </c>
+      <c r="C470" t="s">
+        <v>32</v>
+      </c>
+      <c r="D470">
+        <v>807</v>
+      </c>
+      <c r="E470">
+        <v>1825</v>
+      </c>
+      <c r="F470">
+        <v>44.2</v>
+      </c>
+      <c r="G470" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
+      <c r="A471" t="s">
+        <v>22</v>
+      </c>
+      <c r="B471" t="s">
+        <v>26</v>
+      </c>
+      <c r="C471" t="s">
+        <v>33</v>
+      </c>
+      <c r="D471">
+        <v>64</v>
+      </c>
+      <c r="E471">
+        <v>141</v>
+      </c>
+      <c r="F471">
+        <v>45.4</v>
+      </c>
+      <c r="G471" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
+      <c r="A472" t="s">
+        <v>22</v>
+      </c>
+      <c r="B472" t="s">
+        <v>27</v>
+      </c>
+      <c r="C472" t="s">
+        <v>29</v>
+      </c>
+      <c r="D472">
+        <v>11</v>
+      </c>
+      <c r="E472">
+        <v>12</v>
+      </c>
+      <c r="F472">
+        <v>91.7</v>
+      </c>
+      <c r="G472" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
+      <c r="A473" t="s">
+        <v>22</v>
+      </c>
+      <c r="B473" t="s">
+        <v>27</v>
+      </c>
+      <c r="C473" t="s">
+        <v>30</v>
+      </c>
+      <c r="D473">
+        <v>375</v>
+      </c>
+      <c r="E473">
+        <v>498</v>
+      </c>
+      <c r="F473">
+        <v>75.3</v>
+      </c>
+      <c r="G473" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
+      <c r="A474" t="s">
+        <v>22</v>
+      </c>
+      <c r="B474" t="s">
+        <v>27</v>
+      </c>
+      <c r="C474" t="s">
+        <v>31</v>
+      </c>
+      <c r="D474">
+        <v>639</v>
+      </c>
+      <c r="E474">
+        <v>865</v>
+      </c>
+      <c r="F474">
+        <v>73.90000000000001</v>
+      </c>
+      <c r="G474" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
+      <c r="A475" t="s">
+        <v>22</v>
+      </c>
+      <c r="B475" t="s">
+        <v>27</v>
+      </c>
+      <c r="C475" t="s">
+        <v>32</v>
+      </c>
+      <c r="D475">
+        <v>1132</v>
+      </c>
+      <c r="E475">
+        <v>1825</v>
+      </c>
+      <c r="F475">
+        <v>62</v>
+      </c>
+      <c r="G475" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
+      <c r="A476" t="s">
+        <v>22</v>
+      </c>
+      <c r="B476" t="s">
+        <v>27</v>
+      </c>
+      <c r="C476" t="s">
+        <v>33</v>
+      </c>
+      <c r="D476">
+        <v>83</v>
+      </c>
+      <c r="E476">
+        <v>141</v>
+      </c>
+      <c r="F476">
+        <v>58.9</v>
+      </c>
+      <c r="G476" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
+      <c r="A477" t="s">
+        <v>22</v>
+      </c>
+      <c r="B477" t="s">
+        <v>28</v>
+      </c>
+      <c r="C477" t="s">
+        <v>29</v>
+      </c>
+      <c r="D477">
+        <v>5</v>
+      </c>
+      <c r="E477">
+        <v>12</v>
+      </c>
+      <c r="F477">
+        <v>41.7</v>
+      </c>
+      <c r="G477" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" t="s">
+        <v>22</v>
+      </c>
+      <c r="B478" t="s">
+        <v>28</v>
+      </c>
+      <c r="C478" t="s">
+        <v>30</v>
+      </c>
+      <c r="D478">
+        <v>236</v>
+      </c>
+      <c r="E478">
+        <v>498</v>
+      </c>
+      <c r="F478">
+        <v>47.4</v>
+      </c>
+      <c r="G478" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
+      <c r="A479" t="s">
+        <v>22</v>
+      </c>
+      <c r="B479" t="s">
+        <v>28</v>
+      </c>
+      <c r="C479" t="s">
+        <v>31</v>
+      </c>
+      <c r="D479">
+        <v>363</v>
+      </c>
+      <c r="E479">
+        <v>865</v>
+      </c>
+      <c r="F479">
+        <v>42</v>
+      </c>
+      <c r="G479" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
+      <c r="A480" t="s">
+        <v>22</v>
+      </c>
+      <c r="B480" t="s">
+        <v>28</v>
+      </c>
+      <c r="C480" t="s">
+        <v>32</v>
+      </c>
+      <c r="D480">
+        <v>655</v>
+      </c>
+      <c r="E480">
+        <v>1825</v>
+      </c>
+      <c r="F480">
+        <v>35.9</v>
+      </c>
+      <c r="G480" s="2">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
+      <c r="A481" t="s">
+        <v>22</v>
+      </c>
+      <c r="B481" t="s">
+        <v>28</v>
+      </c>
+      <c r="C481" t="s">
+        <v>33</v>
+      </c>
+      <c r="D481">
+        <v>43</v>
+      </c>
+      <c r="E481">
+        <v>141</v>
+      </c>
+      <c r="F481">
+        <v>30.5</v>
+      </c>
+      <c r="G481" s="2">
+        <v>44705</v>
       </c>
     </row>
   </sheetData>
